--- a/bh3/546563214379327181_2021-07-12_21-04-25.xlsx
+++ b/bh3/546563214379327181_2021-07-12_21-04-25.xlsx
@@ -703,7 +703,7 @@
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -782,7 +782,7 @@
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
@@ -928,7 +928,7 @@
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -999,7 +999,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1204,7 +1204,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1512,7 +1512,7 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -1591,7 +1591,7 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -1749,7 +1749,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -1978,7 +1978,7 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
@@ -2275,7 +2275,7 @@
         </is>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K26" t="inlineStr">
@@ -2426,7 +2426,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -4253,7 +4253,7 @@
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -4388,7 +4388,7 @@
       </c>
       <c r="J54" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K54" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -4603,7 +4603,7 @@
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K57" t="inlineStr">
@@ -4757,7 +4757,7 @@
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K59" t="inlineStr">
@@ -4970,7 +4970,7 @@
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K62" t="inlineStr">
@@ -5120,7 +5120,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5191,7 +5191,7 @@
         </is>
       </c>
       <c r="I65" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J65" t="inlineStr">
         <is>
@@ -5499,7 +5499,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5574,7 +5574,7 @@
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K70" t="inlineStr">
@@ -5720,7 +5720,7 @@
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K72" t="inlineStr">
@@ -5799,7 +5799,7 @@
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K73" t="inlineStr">
@@ -5945,7 +5945,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6020,7 +6020,7 @@
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K76" t="inlineStr">
@@ -6245,7 +6245,7 @@
       </c>
       <c r="J79" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K79" t="inlineStr">
@@ -6621,7 +6621,7 @@
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K84" t="inlineStr">
@@ -6854,7 +6854,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -6925,7 +6925,7 @@
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K88" t="inlineStr">
@@ -7068,11 +7068,11 @@
         </is>
       </c>
       <c r="I90" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K90" t="inlineStr">
@@ -7139,7 +7139,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -7360,7 +7360,7 @@
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K94" t="inlineStr">
@@ -7514,7 +7514,7 @@
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K96" t="inlineStr">
@@ -7751,7 +7751,7 @@
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K99" t="inlineStr">
@@ -7897,7 +7897,7 @@
       </c>
       <c r="J101" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K101" t="inlineStr">
@@ -8047,7 +8047,7 @@
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K103" t="inlineStr">
@@ -8122,7 +8122,7 @@
       </c>
       <c r="J104" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K104" t="inlineStr">
@@ -8193,7 +8193,7 @@
       </c>
       <c r="J105" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K105" t="inlineStr">
@@ -8414,7 +8414,7 @@
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K108" t="inlineStr">
@@ -8489,7 +8489,7 @@
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K109" t="inlineStr">
@@ -8781,7 +8781,7 @@
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K113" t="inlineStr">
@@ -9004,7 +9004,7 @@
       </c>
       <c r="J116" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K116" t="inlineStr">
@@ -9079,7 +9079,7 @@
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K117" t="inlineStr">
@@ -9146,11 +9146,11 @@
         </is>
       </c>
       <c r="I118" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J118" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K118" t="inlineStr">
@@ -9383,7 +9383,7 @@
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K121" t="inlineStr">
@@ -9596,7 +9596,7 @@
       </c>
       <c r="J124" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K124" t="inlineStr">
@@ -9810,7 +9810,7 @@
       </c>
       <c r="J127" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K127" t="inlineStr">
@@ -9889,7 +9889,7 @@
       </c>
       <c r="J128" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K128" t="inlineStr">
@@ -9964,7 +9964,7 @@
       </c>
       <c r="J129" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K129" t="inlineStr">
@@ -10027,7 +10027,7 @@
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K130" t="inlineStr">
@@ -10469,7 +10469,7 @@
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K136" t="inlineStr">
@@ -10544,7 +10544,7 @@
       </c>
       <c r="J137" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K137" t="inlineStr">
@@ -10619,7 +10619,7 @@
       </c>
       <c r="J138" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K138" t="inlineStr">
@@ -10694,11 +10694,11 @@
         </is>
       </c>
       <c r="I139" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K139" t="inlineStr">
@@ -10836,11 +10836,11 @@
         </is>
       </c>
       <c r="I141" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K141" t="inlineStr">
@@ -11057,7 +11057,7 @@
       </c>
       <c r="J144" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K144" t="inlineStr">
@@ -11787,7 +11787,7 @@
       </c>
       <c r="J154" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K154" t="inlineStr">
@@ -12016,7 +12016,7 @@
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K157" t="inlineStr">
@@ -12083,11 +12083,11 @@
         </is>
       </c>
       <c r="I158" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J158" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K158" t="inlineStr">
@@ -12162,7 +12162,7 @@
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K159" t="inlineStr">
@@ -12463,7 +12463,7 @@
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K163" t="inlineStr">
@@ -12613,7 +12613,7 @@
         </is>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J165" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
       </c>
       <c r="J166" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K166" t="inlineStr">
@@ -12767,7 +12767,7 @@
         </is>
       </c>
       <c r="I167" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J167" t="inlineStr">
         <is>
@@ -12917,7 +12917,7 @@
       </c>
       <c r="J169" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K169" t="inlineStr">
@@ -13067,7 +13067,7 @@
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K171" t="inlineStr">
@@ -13225,7 +13225,7 @@
       </c>
       <c r="J173" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K173" t="inlineStr">
@@ -13300,7 +13300,7 @@
       </c>
       <c r="J174" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K174" t="inlineStr">
@@ -13371,7 +13371,7 @@
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K175" t="inlineStr">
@@ -13438,7 +13438,7 @@
       </c>
       <c r="J176" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K176" t="inlineStr">
@@ -13510,7 +13510,7 @@
       </c>
       <c r="J177" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K177" t="inlineStr">
@@ -13577,7 +13577,7 @@
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K178" t="inlineStr">
@@ -13644,7 +13644,7 @@
       </c>
       <c r="J179" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K179" t="inlineStr">
@@ -14113,7 +14113,7 @@
       </c>
       <c r="J185" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K185" t="inlineStr">
@@ -14192,7 +14192,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -14342,7 +14342,7 @@
         </is>
       </c>
       <c r="I188" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J188" t="inlineStr">
         <is>
@@ -14492,7 +14492,7 @@
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K190" t="inlineStr">
@@ -14567,7 +14567,7 @@
       </c>
       <c r="J191" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K191" t="inlineStr">
@@ -15104,7 +15104,7 @@
       </c>
       <c r="J198" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K198" t="inlineStr">
@@ -15179,7 +15179,7 @@
       </c>
       <c r="J199" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K199" t="inlineStr">
@@ -15325,7 +15325,7 @@
       </c>
       <c r="J201" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K201" t="inlineStr">
@@ -15538,7 +15538,7 @@
       </c>
       <c r="J204" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K204" t="inlineStr">
@@ -15605,7 +15605,7 @@
       </c>
       <c r="J205" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K205" t="inlineStr">
@@ -15677,7 +15677,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -15744,7 +15744,7 @@
       </c>
       <c r="J207" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K207" t="inlineStr">
@@ -15823,7 +15823,7 @@
       </c>
       <c r="J208" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K208" t="inlineStr">
@@ -15894,7 +15894,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -16048,7 +16048,7 @@
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K211" t="inlineStr">
@@ -16115,7 +16115,7 @@
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K212" t="inlineStr">
@@ -16247,7 +16247,7 @@
       </c>
       <c r="J214" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K214" t="inlineStr">
@@ -16394,7 +16394,7 @@
       </c>
       <c r="J216" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K216" t="inlineStr">
@@ -16469,7 +16469,7 @@
         </is>
       </c>
       <c r="I217" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" t="inlineStr">
         <is>
@@ -16621,7 +16621,7 @@
       </c>
       <c r="J219" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K219" t="inlineStr">
@@ -17001,7 +17001,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -17226,7 +17226,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -17439,7 +17439,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -17514,7 +17514,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -17672,7 +17672,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -17743,7 +17743,7 @@
       </c>
       <c r="J234" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K234" t="inlineStr">
@@ -17889,7 +17889,7 @@
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K236" t="inlineStr">
@@ -18047,7 +18047,7 @@
       </c>
       <c r="J238" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K238" t="inlineStr">
@@ -18126,7 +18126,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -18205,7 +18205,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -18351,7 +18351,7 @@
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K242" t="inlineStr">
@@ -18489,7 +18489,7 @@
       </c>
       <c r="J244" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K244" t="inlineStr">
@@ -18564,7 +18564,7 @@
         </is>
       </c>
       <c r="I245" t="n">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="J245" t="inlineStr">
         <is>
@@ -18718,7 +18718,7 @@
       </c>
       <c r="J247" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K247" t="inlineStr">
@@ -18860,7 +18860,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -18927,7 +18927,7 @@
         </is>
       </c>
       <c r="I250" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="J250" t="inlineStr">
         <is>
@@ -19085,7 +19085,7 @@
         </is>
       </c>
       <c r="I252" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J252" t="inlineStr">
         <is>
@@ -19168,7 +19168,7 @@
       </c>
       <c r="J253" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K253" t="inlineStr">
@@ -19247,7 +19247,7 @@
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K254" t="inlineStr">
@@ -19444,7 +19444,7 @@
         </is>
       </c>
       <c r="I257" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J257" t="inlineStr">
         <is>
@@ -19519,7 +19519,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -19598,7 +19598,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -19815,7 +19815,7 @@
       </c>
       <c r="J262" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K262" t="inlineStr">
@@ -20099,7 +20099,7 @@
         </is>
       </c>
       <c r="I266" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="J266" t="inlineStr">
         <is>
@@ -20241,7 +20241,7 @@
       </c>
       <c r="J268" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K268" t="inlineStr">
@@ -20612,7 +20612,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -20683,7 +20683,7 @@
       </c>
       <c r="J274" t="inlineStr">
         <is>
-          <t>苹果</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K274" t="inlineStr">
@@ -20904,7 +20904,7 @@
         </is>
       </c>
       <c r="I277" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J277" t="inlineStr">
         <is>
@@ -21717,7 +21717,7 @@
       </c>
       <c r="J288" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K288" t="inlineStr">
@@ -21784,7 +21784,7 @@
       </c>
       <c r="J289" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K289" t="inlineStr">
@@ -21851,7 +21851,7 @@
       </c>
       <c r="J290" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K290" t="inlineStr">
@@ -22009,7 +22009,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -22155,7 +22155,7 @@
       </c>
       <c r="J294" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K294" t="inlineStr">
@@ -22222,7 +22222,7 @@
         </is>
       </c>
       <c r="I295" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="J295" t="inlineStr">
         <is>
@@ -22451,7 +22451,7 @@
       </c>
       <c r="J298" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K298" t="inlineStr">
@@ -22530,7 +22530,7 @@
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K299" t="inlineStr">
@@ -22684,7 +22684,7 @@
       </c>
       <c r="J301" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K301" t="inlineStr">
@@ -23039,7 +23039,7 @@
         </is>
       </c>
       <c r="I306" t="n">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="J306" t="inlineStr">
         <is>
@@ -23331,7 +23331,7 @@
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K310" t="inlineStr">
@@ -23628,7 +23628,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -24293,7 +24293,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -24486,7 +24486,7 @@
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>苹果</t>
         </is>
       </c>
       <c r="K325" t="inlineStr">
@@ -24766,7 +24766,7 @@
         </is>
       </c>
       <c r="I329" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="J329" t="inlineStr">
         <is>
@@ -24841,7 +24841,7 @@
         </is>
       </c>
       <c r="I330" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J330" t="inlineStr">
         <is>
@@ -24912,7 +24912,7 @@
         </is>
       </c>
       <c r="I331" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="J331" t="inlineStr">
         <is>
@@ -25133,7 +25133,7 @@
         </is>
       </c>
       <c r="I334" t="n">
-        <v>624</v>
+        <v>626</v>
       </c>
       <c r="J334" t="inlineStr">
         <is>
@@ -25267,7 +25267,7 @@
         </is>
       </c>
       <c r="I336" t="n">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="J336" t="inlineStr">
         <is>
@@ -25969,7 +25969,7 @@
       </c>
       <c r="J346" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K346" t="inlineStr">
@@ -26569,7 +26569,7 @@
       </c>
       <c r="J354" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K354" t="inlineStr">
@@ -26847,7 +26847,7 @@
         </is>
       </c>
       <c r="F358" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -26860,7 +26860,7 @@
         </is>
       </c>
       <c r="I358" t="n">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J358" t="inlineStr">
         <is>
@@ -27010,7 +27010,7 @@
         </is>
       </c>
       <c r="I360" t="n">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="J360" t="inlineStr">
         <is>
@@ -27219,7 +27219,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">
@@ -27298,7 +27298,7 @@
       </c>
       <c r="J364" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K364" t="inlineStr">
@@ -27954,7 +27954,7 @@
         </is>
       </c>
       <c r="I373" t="n">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="J373" t="inlineStr">
         <is>
@@ -28104,7 +28104,7 @@
         </is>
       </c>
       <c r="I375" t="n">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="J375" t="inlineStr">
         <is>
@@ -28398,7 +28398,7 @@
         </is>
       </c>
       <c r="I379" t="n">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J379" t="inlineStr">
         <is>
@@ -28623,7 +28623,7 @@
         </is>
       </c>
       <c r="I382" t="n">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="J382" t="inlineStr">
         <is>

--- a/bh3/546563214379327181_2021-07-12_21-04-25.xlsx
+++ b/bh3/546563214379327181_2021-07-12_21-04-25.xlsx
@@ -549,7 +549,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -857,7 +857,7 @@
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
@@ -999,7 +999,7 @@
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
@@ -1062,7 +1062,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -1125,7 +1125,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -3009,7 +3009,7 @@
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K35" t="inlineStr">
@@ -4456,7 +4456,7 @@
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K55" t="inlineStr">
@@ -5120,7 +5120,7 @@
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K64" t="inlineStr">
@@ -5499,7 +5499,7 @@
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K69" t="inlineStr">
@@ -5945,7 +5945,7 @@
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K75" t="inlineStr">
@@ -6095,7 +6095,7 @@
       </c>
       <c r="J77" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K77" t="inlineStr">
@@ -6549,7 +6549,7 @@
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K83" t="inlineStr">
@@ -6854,7 +6854,7 @@
       </c>
       <c r="J87" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K87" t="inlineStr">
@@ -8933,7 +8933,7 @@
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K115" t="inlineStr">
@@ -10990,7 +10990,7 @@
       </c>
       <c r="J143" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K143" t="inlineStr">
@@ -11487,7 +11487,7 @@
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -11554,7 +11554,7 @@
       </c>
       <c r="J151" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K151" t="inlineStr">
@@ -13723,7 +13723,7 @@
       </c>
       <c r="J180" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K180" t="inlineStr">
@@ -13802,7 +13802,7 @@
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K181" t="inlineStr">
@@ -14192,7 +14192,7 @@
       </c>
       <c r="J186" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K186" t="inlineStr">
@@ -14796,7 +14796,7 @@
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K194" t="inlineStr">
@@ -15677,7 +15677,7 @@
       </c>
       <c r="J206" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K206" t="inlineStr">
@@ -15894,7 +15894,7 @@
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K209" t="inlineStr">
@@ -17001,7 +17001,7 @@
       </c>
       <c r="J224" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K224" t="inlineStr">
@@ -17226,7 +17226,7 @@
       </c>
       <c r="J227" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K227" t="inlineStr">
@@ -17439,7 +17439,7 @@
       </c>
       <c r="J230" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K230" t="inlineStr">
@@ -17514,7 +17514,7 @@
       </c>
       <c r="J231" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K231" t="inlineStr">
@@ -17672,7 +17672,7 @@
       </c>
       <c r="J233" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K233" t="inlineStr">
@@ -18126,7 +18126,7 @@
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K239" t="inlineStr">
@@ -18205,7 +18205,7 @@
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K240" t="inlineStr">
@@ -18276,7 +18276,7 @@
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>网页</t>
         </is>
       </c>
       <c r="K241" t="inlineStr">
@@ -18860,7 +18860,7 @@
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K249" t="inlineStr">
@@ -19010,7 +19010,7 @@
       </c>
       <c r="J251" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K251" t="inlineStr">
@@ -19519,7 +19519,7 @@
       </c>
       <c r="J258" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K258" t="inlineStr">
@@ -19598,7 +19598,7 @@
       </c>
       <c r="J259" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K259" t="inlineStr">
@@ -19894,7 +19894,7 @@
       </c>
       <c r="J263" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K263" t="inlineStr">
@@ -20612,7 +20612,7 @@
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K273" t="inlineStr">
@@ -21362,7 +21362,7 @@
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>未知</t>
+          <t>安卓</t>
         </is>
       </c>
       <c r="K283" t="inlineStr">
@@ -21433,7 +21433,7 @@
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K284" t="inlineStr">
@@ -21930,7 +21930,7 @@
       </c>
       <c r="J291" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K291" t="inlineStr">
@@ -22009,7 +22009,7 @@
       </c>
       <c r="J292" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K292" t="inlineStr">
@@ -22905,7 +22905,7 @@
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K304" t="inlineStr">
@@ -23260,7 +23260,7 @@
       </c>
       <c r="J309" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K309" t="inlineStr">
@@ -23410,7 +23410,7 @@
       </c>
       <c r="J311" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K311" t="inlineStr">
@@ -23481,7 +23481,7 @@
       </c>
       <c r="J312" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K312" t="inlineStr">
@@ -23628,7 +23628,7 @@
       </c>
       <c r="J314" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K314" t="inlineStr">
@@ -24293,7 +24293,7 @@
       </c>
       <c r="J323" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K323" t="inlineStr">
@@ -24691,7 +24691,7 @@
       </c>
       <c r="J328" t="inlineStr">
         <is>
-          <t>网页</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K328" t="inlineStr">
@@ -25267,7 +25267,7 @@
         </is>
       </c>
       <c r="I336" t="n">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J336" t="inlineStr">
         <is>
@@ -26419,7 +26419,7 @@
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K352" t="inlineStr">
@@ -26847,7 +26847,7 @@
         </is>
       </c>
       <c r="F358" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G358" t="inlineStr">
         <is>
@@ -27219,7 +27219,7 @@
       </c>
       <c r="J363" t="inlineStr">
         <is>
-          <t>安卓</t>
+          <t>未知</t>
         </is>
       </c>
       <c r="K363" t="inlineStr">

--- a/bh3/546563214379327181_2021-07-12_21-04-25.xlsx
+++ b/bh3/546563214379327181_2021-07-12_21-04-25.xlsx
@@ -16,7 +16,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <name val="Calibri"/>
@@ -46,8 +48,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -419,6 +422,19 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="12" customWidth="1" min="1" max="1"/>
+    <col width="12" customWidth="1" min="2" max="2"/>
+    <col width="12" customWidth="1" min="3" max="3"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
+    <col width="12" customWidth="1" min="7" max="7"/>
+    <col width="20" customWidth="1" min="8" max="8"/>
+    <col width="12" customWidth="1" min="11" max="11"/>
+    <col width="12" customWidth="1" min="13" max="13"/>
+    <col width="12" customWidth="1" min="15" max="15"/>
+    <col width="20" customWidth="1" min="16" max="16"/>
+    <col width="20" customWidth="1" min="17" max="17"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -539,10 +555,8 @@
           <t>4922216109</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2021-07-16 17:10:06</t>
-        </is>
+      <c r="H2" s="1" t="n">
+        <v>44393.71534722222</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -618,10 +632,8 @@
           <t>4901897969</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2021-07-14 22:34:28</t>
-        </is>
+      <c r="H3" s="1" t="n">
+        <v>44391.94060185185</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -693,10 +705,8 @@
           <t>4909545833</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>2021-07-14 21:36:43</t>
-        </is>
+      <c r="H4" s="1" t="n">
+        <v>44391.90049768519</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -772,10 +782,8 @@
           <t>4908338783</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>2021-07-14 18:54:19</t>
-        </is>
+      <c r="H5" s="1" t="n">
+        <v>44391.78771990741</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -847,10 +855,8 @@
           <t>4904857993</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>2021-07-14 12:55:28</t>
-        </is>
+      <c r="H6" s="1" t="n">
+        <v>44391.53851851852</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -918,10 +924,8 @@
           <t>4905620305</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>2021-07-14 11:32:22</t>
-        </is>
+      <c r="H7" s="1" t="n">
+        <v>44391.48081018519</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -989,10 +993,8 @@
           <t>4905516418</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>2021-07-14 11:14:53</t>
-        </is>
+      <c r="H8" s="1" t="n">
+        <v>44391.46866898148</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1052,10 +1054,8 @@
           <t>4905507728</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>2021-07-14 11:13:14</t>
-        </is>
+      <c r="H9" s="1" t="n">
+        <v>44391.46752314815</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
@@ -1115,10 +1115,8 @@
           <t>4904857993</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:10:31</t>
-        </is>
+      <c r="H10" s="1" t="n">
+        <v>44391.42396990741</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1194,10 +1192,8 @@
           <t>4904857993</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>2021-07-14 10:00:36</t>
-        </is>
+      <c r="H11" s="1" t="n">
+        <v>44391.41708333333</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1265,10 +1261,8 @@
           <t>4904941368</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:22:56</t>
-        </is>
+      <c r="H12" s="1" t="n">
+        <v>44391.39092592592</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1344,10 +1338,8 @@
           <t>4904931012</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:21:32</t>
-        </is>
+      <c r="H13" s="1" t="n">
+        <v>44391.38995370371</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1423,10 +1415,8 @@
           <t>4904857993</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>2021-07-14 09:06:04</t>
-        </is>
+      <c r="H14" s="1" t="n">
+        <v>44391.37921296297</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1502,10 +1492,8 @@
           <t>4903589904</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:18:57</t>
-        </is>
+      <c r="H15" s="1" t="n">
+        <v>44390.92982638889</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1581,10 +1569,8 @@
           <t>4903626194</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:08:03</t>
-        </is>
+      <c r="H16" s="1" t="n">
+        <v>44390.92225694445</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1660,10 +1646,8 @@
           <t>4903589904</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:05:06</t>
-        </is>
+      <c r="H17" s="1" t="n">
+        <v>44390.92020833334</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1739,10 +1723,8 @@
           <t>4903587477</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>2021-07-13 22:04:05</t>
-        </is>
+      <c r="H18" s="1" t="n">
+        <v>44390.91950231481</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1818,10 +1800,8 @@
           <t>4896239939</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:42:49</t>
-        </is>
+      <c r="H19" s="1" t="n">
+        <v>44390.82140046296</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -1893,10 +1873,8 @@
           <t>4896239939</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:35:01</t>
-        </is>
+      <c r="H20" s="1" t="n">
+        <v>44390.8159837963</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -1968,10 +1946,8 @@
           <t>4896239939</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:33:54</t>
-        </is>
+      <c r="H21" s="1" t="n">
+        <v>44390.81520833333</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2043,10 +2019,8 @@
           <t>4896239939</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:13:27</t>
-        </is>
+      <c r="H22" s="1" t="n">
+        <v>44390.80100694444</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2119,10 +2093,8 @@
           <t>4896239939</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>2021-07-13 19:08:23</t>
-        </is>
+      <c r="H23" s="1" t="n">
+        <v>44390.79748842592</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2194,10 +2166,8 @@
           <t>4896197581</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:16:37</t>
-        </is>
+      <c r="H24" s="1" t="n">
+        <v>44390.76153935185</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2269,10 +2239,8 @@
           <t>4901897969</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:08:53</t>
-        </is>
+      <c r="H25" s="1" t="n">
+        <v>44390.75616898148</v>
       </c>
       <c r="I25" t="n">
         <v>4</v>
@@ -2341,10 +2309,8 @@
           <t>4896545793</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>2021-07-13 18:02:55</t>
-        </is>
+      <c r="H26" s="1" t="n">
+        <v>44390.75202546296</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2416,10 +2382,8 @@
           <t>4901760281</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>2021-07-13 17:48:36</t>
-        </is>
+      <c r="H27" s="1" t="n">
+        <v>44390.74208333333</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2487,10 +2451,8 @@
           <t>4896197581</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>2021-07-13 17:47:04</t>
-        </is>
+      <c r="H28" s="1" t="n">
+        <v>44390.74101851852</v>
       </c>
       <c r="I28" t="n">
         <v>1</v>
@@ -2558,10 +2520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>2021-07-13 17:28:43</t>
-        </is>
+      <c r="H29" s="1" t="n">
+        <v>44390.72827546296</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2637,10 +2597,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>2021-07-13 17:00:00</t>
-        </is>
+      <c r="H30" s="1" t="n">
+        <v>44390.70833333334</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2708,10 +2666,8 @@
           <t>4896239939</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>2021-07-13 16:44:16</t>
-        </is>
+      <c r="H31" s="1" t="n">
+        <v>44390.69740740741</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2783,10 +2739,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>2021-07-13 15:44:04</t>
-        </is>
+      <c r="H32" s="1" t="n">
+        <v>44390.65560185185</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -2853,10 +2807,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>2021-07-13 15:20:47</t>
-        </is>
+      <c r="H33" s="1" t="n">
+        <v>44390.63943287037</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
@@ -2924,10 +2876,8 @@
           <t>4900866636</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>2021-07-13 15:13:54</t>
-        </is>
+      <c r="H34" s="1" t="n">
+        <v>44390.63465277778</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -2999,10 +2949,8 @@
           <t>4900858824</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>2021-07-13 15:13:21</t>
-        </is>
+      <c r="H35" s="1" t="n">
+        <v>44390.63427083333</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3074,10 +3022,8 @@
           <t>4896239939</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>2021-07-13 15:12:14</t>
-        </is>
+      <c r="H36" s="1" t="n">
+        <v>44390.63349537037</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3149,10 +3095,8 @@
           <t>4900851069</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>2021-07-13 15:10:34</t>
-        </is>
+      <c r="H37" s="1" t="n">
+        <v>44390.63233796296</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3224,10 +3168,8 @@
           <t>4900832536</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>2021-07-13 15:08:23</t>
-        </is>
+      <c r="H38" s="1" t="n">
+        <v>44390.63082175926</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3299,10 +3241,8 @@
           <t>4900734983</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:49:38</t>
-        </is>
+      <c r="H39" s="1" t="n">
+        <v>44390.61780092592</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3370,10 +3310,8 @@
           <t>4896497351</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:43:43</t>
-        </is>
+      <c r="H40" s="1" t="n">
+        <v>44390.61369212963</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3449,10 +3387,8 @@
           <t>4896497351</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:41:01</t>
-        </is>
+      <c r="H41" s="1" t="n">
+        <v>44390.61181712963</v>
       </c>
       <c r="I41" t="n">
         <v>3</v>
@@ -3520,10 +3456,8 @@
           <t>4900582376</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>2021-07-13 14:19:47</t>
-        </is>
+      <c r="H42" s="1" t="n">
+        <v>44390.59707175926</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3591,10 +3525,8 @@
           <t>4900389654</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:45:48</t>
-        </is>
+      <c r="H43" s="1" t="n">
+        <v>44390.57347222222</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3670,10 +3602,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:34:47</t>
-        </is>
+      <c r="H44" s="1" t="n">
+        <v>44390.56582175926</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -3749,10 +3679,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>2021-07-13 13:28:21</t>
-        </is>
+      <c r="H45" s="1" t="n">
+        <v>44390.56135416667</v>
       </c>
       <c r="I45" t="n">
         <v>1</v>
@@ -3829,10 +3757,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:18:58</t>
-        </is>
+      <c r="H46" s="1" t="n">
+        <v>44390.5131712963</v>
       </c>
       <c r="I46" t="n">
         <v>5</v>
@@ -3896,10 +3822,8 @@
           <t>4899737377</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>2021-07-13 12:05:58</t>
-        </is>
+      <c r="H47" s="1" t="n">
+        <v>44390.50414351852</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
@@ -3967,10 +3891,8 @@
           <t>4899696792</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:59:56</t>
-        </is>
+      <c r="H48" s="1" t="n">
+        <v>44390.4999537037</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
@@ -4034,10 +3956,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:37:29</t>
-        </is>
+      <c r="H49" s="1" t="n">
+        <v>44390.48436342592</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -4097,10 +4017,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:33:22</t>
-        </is>
+      <c r="H50" s="1" t="n">
+        <v>44390.48150462963</v>
       </c>
       <c r="I50" t="n">
         <v>3</v>
@@ -4172,10 +4090,8 @@
           <t>4899480845</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:24:25</t>
-        </is>
+      <c r="H51" s="1" t="n">
+        <v>44390.47528935185</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
@@ -4243,10 +4159,8 @@
           <t>4899477108</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:23:56</t>
-        </is>
+      <c r="H52" s="1" t="n">
+        <v>44390.47495370371</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
@@ -4310,10 +4224,8 @@
           <t>4899467159</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:22:27</t>
-        </is>
+      <c r="H53" s="1" t="n">
+        <v>44390.47392361111</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
@@ -4378,10 +4290,8 @@
           <t>4896295306</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:20:53</t>
-        </is>
+      <c r="H54" s="1" t="n">
+        <v>44390.47283564815</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
@@ -4446,10 +4356,8 @@
           <t>4899453814</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:20:36</t>
-        </is>
+      <c r="H55" s="1" t="n">
+        <v>44390.47263888889</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
@@ -4514,10 +4422,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:16:37</t>
-        </is>
+      <c r="H56" s="1" t="n">
+        <v>44390.46987268519</v>
       </c>
       <c r="I56" t="n">
         <v>2</v>
@@ -4593,10 +4499,8 @@
           <t>4897439211</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:15:16</t>
-        </is>
+      <c r="H57" s="1" t="n">
+        <v>44390.46893518518</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
@@ -4672,10 +4576,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>2021-07-13 11:13:12</t>
-        </is>
+      <c r="H58" s="1" t="n">
+        <v>44390.4675</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
@@ -4747,10 +4649,8 @@
           <t>4899283944</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>2021-07-13 10:50:24</t>
-        </is>
+      <c r="H59" s="1" t="n">
+        <v>44390.45166666667</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
@@ -4822,10 +4722,8 @@
           <t>4899246488</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>2021-07-13 10:42:15</t>
-        </is>
+      <c r="H60" s="1" t="n">
+        <v>44390.44600694445</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
@@ -4889,10 +4787,8 @@
           <t>4899075718</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>2021-07-13 10:25:30</t>
-        </is>
+      <c r="H61" s="1" t="n">
+        <v>44390.434375</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
@@ -4960,10 +4856,8 @@
           <t>4899124077</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>2021-07-13 10:19:30</t>
-        </is>
+      <c r="H62" s="1" t="n">
+        <v>44390.43020833333</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
@@ -5035,10 +4929,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>2021-07-13 10:13:39</t>
-        </is>
+      <c r="H63" s="1" t="n">
+        <v>44390.42614583333</v>
       </c>
       <c r="I63" t="n">
         <v>2</v>
@@ -5110,10 +5002,8 @@
           <t>4899068160</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>2021-07-13 10:09:11</t>
-        </is>
+      <c r="H64" s="1" t="n">
+        <v>44390.42304398148</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
@@ -5185,10 +5075,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>2021-07-13 10:08:51</t>
-        </is>
+      <c r="H65" s="1" t="n">
+        <v>44390.4228125</v>
       </c>
       <c r="I65" t="n">
         <v>6</v>
@@ -5260,10 +5148,8 @@
           <t>4899075718</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>2021-07-13 10:08:04</t>
-        </is>
+      <c r="H66" s="1" t="n">
+        <v>44390.42226851852</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
@@ -5335,10 +5221,8 @@
           <t>4899050345</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>2021-07-13 10:04:40</t>
-        </is>
+      <c r="H67" s="1" t="n">
+        <v>44390.41990740741</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
@@ -5410,10 +5294,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
-        <is>
-          <t>2021-07-13 09:44:50</t>
-        </is>
+      <c r="H68" s="1" t="n">
+        <v>44390.40613425926</v>
       </c>
       <c r="I68" t="n">
         <v>3</v>
@@ -5489,10 +5371,8 @@
           <t>4898953797</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
-        <is>
-          <t>2021-07-13 09:44:39</t>
-        </is>
+      <c r="H69" s="1" t="n">
+        <v>44390.40600694445</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
@@ -5564,10 +5444,8 @@
           <t>4898946665</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
-        <is>
-          <t>2021-07-13 09:42:25</t>
-        </is>
+      <c r="H70" s="1" t="n">
+        <v>44390.40445601852</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
@@ -5635,10 +5513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
-        <is>
-          <t>2021-07-13 09:19:33</t>
-        </is>
+      <c r="H71" s="1" t="n">
+        <v>44390.38857638889</v>
       </c>
       <c r="I71" t="n">
         <v>6</v>
@@ -5710,10 +5586,8 @@
           <t>4898827996</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
-        <is>
-          <t>2021-07-13 09:15:16</t>
-        </is>
+      <c r="H72" s="1" t="n">
+        <v>44390.38560185185</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
@@ -5789,10 +5663,8 @@
           <t>4898779316</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>2021-07-13 09:05:24</t>
-        </is>
+      <c r="H73" s="1" t="n">
+        <v>44390.37875</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
@@ -5864,10 +5736,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>2021-07-13 09:03:54</t>
-        </is>
+      <c r="H74" s="1" t="n">
+        <v>44390.37770833333</v>
       </c>
       <c r="I74" t="n">
         <v>18</v>
@@ -5935,10 +5805,8 @@
           <t>4896337000</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
-        <is>
-          <t>2021-07-13 08:56:02</t>
-        </is>
+      <c r="H75" s="1" t="n">
+        <v>44390.37224537037</v>
       </c>
       <c r="I75" t="n">
         <v>1</v>
@@ -6010,10 +5878,8 @@
           <t>4898728104</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>2021-07-13 08:51:00</t>
-        </is>
+      <c r="H76" s="1" t="n">
+        <v>44390.36875</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
@@ -6085,10 +5951,8 @@
           <t>4898712685</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
-        <is>
-          <t>2021-07-13 08:46:43</t>
-        </is>
+      <c r="H77" s="1" t="n">
+        <v>44390.36577546296</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
@@ -6156,10 +6020,8 @@
           <t>4898692077</t>
         </is>
       </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>2021-07-13 08:41:22</t>
-        </is>
+      <c r="H78" s="1" t="n">
+        <v>44390.36206018519</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
@@ -6235,10 +6097,8 @@
           <t>4898686169</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>2021-07-13 08:39:42</t>
-        </is>
+      <c r="H79" s="1" t="n">
+        <v>44390.36090277778</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
@@ -6314,10 +6174,8 @@
           <t>4898622204</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>2021-07-13 08:21:53</t>
-        </is>
+      <c r="H80" s="1" t="n">
+        <v>44390.34853009259</v>
       </c>
       <c r="I80" t="n">
         <v>1</v>
@@ -6389,10 +6247,8 @@
           <t>4898617633</t>
         </is>
       </c>
-      <c r="H81" t="inlineStr">
-        <is>
-          <t>2021-07-13 08:21:36</t>
-        </is>
+      <c r="H81" s="1" t="n">
+        <v>44390.34833333334</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
@@ -6464,10 +6320,8 @@
           <t>4898617379</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
-        <is>
-          <t>2021-07-13 08:21:23</t>
-        </is>
+      <c r="H82" s="1" t="n">
+        <v>44390.34818287037</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
@@ -6539,10 +6393,8 @@
           <t>4896182334</t>
         </is>
       </c>
-      <c r="H83" t="inlineStr">
-        <is>
-          <t>2021-07-13 08:17:17</t>
-        </is>
+      <c r="H83" s="1" t="n">
+        <v>44390.34533564815</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
@@ -6611,10 +6463,8 @@
           <t>4898592679</t>
         </is>
       </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>2021-07-13 08:13:26</t>
-        </is>
+      <c r="H84" s="1" t="n">
+        <v>44390.34266203704</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
@@ -6690,10 +6540,8 @@
           <t>4896182334</t>
         </is>
       </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>2021-07-13 07:55:36</t>
-        </is>
+      <c r="H85" s="1" t="n">
+        <v>44390.33027777778</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
@@ -6769,10 +6617,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>2021-07-13 07:41:54</t>
-        </is>
+      <c r="H86" s="1" t="n">
+        <v>44390.32076388889</v>
       </c>
       <c r="I86" t="n">
         <v>4</v>
@@ -6844,10 +6690,8 @@
           <t>4898457002</t>
         </is>
       </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>2021-07-13 07:25:23</t>
-        </is>
+      <c r="H87" s="1" t="n">
+        <v>44390.30929398148</v>
       </c>
       <c r="I87" t="n">
         <v>1</v>
@@ -6915,10 +6759,8 @@
           <t>4898382567</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>2021-07-13 06:47:13</t>
-        </is>
+      <c r="H88" s="1" t="n">
+        <v>44390.28278935186</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
@@ -6991,10 +6833,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>2021-07-13 03:15:20</t>
-        </is>
+      <c r="H89" s="1" t="n">
+        <v>44390.13564814815</v>
       </c>
       <c r="I89" t="n">
         <v>3</v>
@@ -7062,10 +6902,8 @@
           <t>4898143591</t>
         </is>
       </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>2021-07-13 02:51:07</t>
-        </is>
+      <c r="H90" s="1" t="n">
+        <v>44390.11883101852</v>
       </c>
       <c r="I90" t="n">
         <v>2</v>
@@ -7129,10 +6967,8 @@
           <t>4896545793</t>
         </is>
       </c>
-      <c r="H91" t="inlineStr">
-        <is>
-          <t>2021-07-13 02:39:18</t>
-        </is>
+      <c r="H91" s="1" t="n">
+        <v>44390.110625</v>
       </c>
       <c r="I91" t="n">
         <v>2</v>
@@ -7204,10 +7040,8 @@
           <t>4898118661</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
-        <is>
-          <t>2021-07-13 02:34:44</t>
-        </is>
+      <c r="H92" s="1" t="n">
+        <v>44390.10745370371</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
@@ -7275,10 +7109,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H93" t="inlineStr">
-        <is>
-          <t>2021-07-13 02:09:06</t>
-        </is>
+      <c r="H93" s="1" t="n">
+        <v>44390.08965277778</v>
       </c>
       <c r="I93" t="n">
         <v>11</v>
@@ -7350,10 +7182,8 @@
           <t>4896295306</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>2021-07-13 02:01:35</t>
-        </is>
+      <c r="H94" s="1" t="n">
+        <v>44390.08443287037</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
@@ -7425,10 +7255,8 @@
           <t>4898025486</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>2021-07-13 01:53:16</t>
-        </is>
+      <c r="H95" s="1" t="n">
+        <v>44390.07865740741</v>
       </c>
       <c r="I95" t="n">
         <v>1</v>
@@ -7504,10 +7332,8 @@
           <t>4898014786</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>2021-07-13 01:52:32</t>
-        </is>
+      <c r="H96" s="1" t="n">
+        <v>44390.07814814815</v>
       </c>
       <c r="I96" t="n">
         <v>2</v>
@@ -7583,10 +7409,8 @@
           <t>4898013793</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>2021-07-13 01:51:33</t>
-        </is>
+      <c r="H97" s="1" t="n">
+        <v>44390.07746527778</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
@@ -7662,10 +7486,8 @@
           <t>4898012422</t>
         </is>
       </c>
-      <c r="H98" t="inlineStr">
-        <is>
-          <t>2021-07-13 01:50:08</t>
-        </is>
+      <c r="H98" s="1" t="n">
+        <v>44390.07648148148</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
@@ -7741,10 +7563,8 @@
           <t>4898007419</t>
         </is>
       </c>
-      <c r="H99" t="inlineStr">
-        <is>
-          <t>2021-07-13 01:49:35</t>
-        </is>
+      <c r="H99" s="1" t="n">
+        <v>44390.07609953704</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
@@ -7808,10 +7628,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H100" t="inlineStr">
-        <is>
-          <t>2021-07-13 01:46:35</t>
-        </is>
+      <c r="H100" s="1" t="n">
+        <v>44390.0740162037</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
@@ -7887,10 +7705,8 @@
           <t>4897998565</t>
         </is>
       </c>
-      <c r="H101" t="inlineStr">
-        <is>
-          <t>2021-07-13 01:46:15</t>
-        </is>
+      <c r="H101" s="1" t="n">
+        <v>44390.07378472222</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
@@ -7958,10 +7774,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H102" t="inlineStr">
-        <is>
-          <t>2021-07-13 01:11:51</t>
-        </is>
+      <c r="H102" s="1" t="n">
+        <v>44390.04989583333</v>
       </c>
       <c r="I102" t="n">
         <v>5</v>
@@ -8037,10 +7851,8 @@
           <t>4897857117</t>
         </is>
       </c>
-      <c r="H103" t="inlineStr">
-        <is>
-          <t>2021-07-13 01:06:06</t>
-        </is>
+      <c r="H103" s="1" t="n">
+        <v>44390.04590277778</v>
       </c>
       <c r="I103" t="n">
         <v>1</v>
@@ -8112,10 +7924,8 @@
           <t>4897850132</t>
         </is>
       </c>
-      <c r="H104" t="inlineStr">
-        <is>
-          <t>2021-07-13 01:04:02</t>
-        </is>
+      <c r="H104" s="1" t="n">
+        <v>44390.04446759259</v>
       </c>
       <c r="I104" t="n">
         <v>1</v>
@@ -8183,10 +7993,8 @@
           <t>4896295306</t>
         </is>
       </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:44:17</t>
-        </is>
+      <c r="H105" s="1" t="n">
+        <v>44390.03075231481</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
@@ -8254,10 +8062,8 @@
           <t>4897708972</t>
         </is>
       </c>
-      <c r="H106" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:35:14</t>
-        </is>
+      <c r="H106" s="1" t="n">
+        <v>44390.02446759259</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
@@ -8325,10 +8131,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H107" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:35:10</t>
-        </is>
+      <c r="H107" s="1" t="n">
+        <v>44390.02442129629</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
@@ -8404,10 +8208,8 @@
           <t>4897678644</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:29:33</t>
-        </is>
+      <c r="H108" s="1" t="n">
+        <v>44390.02052083334</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
@@ -8479,10 +8281,8 @@
           <t>4897629845</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:22:18</t>
-        </is>
+      <c r="H109" s="1" t="n">
+        <v>44390.01548611111</v>
       </c>
       <c r="I109" t="n">
         <v>1</v>
@@ -8558,10 +8358,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:19:36</t>
-        </is>
+      <c r="H110" s="1" t="n">
+        <v>44390.01361111111</v>
       </c>
       <c r="I110" t="n">
         <v>4</v>
@@ -8629,10 +8427,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H111" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:18:19</t>
-        </is>
+      <c r="H111" s="1" t="n">
+        <v>44390.0127199074</v>
       </c>
       <c r="I111" t="n">
         <v>2</v>
@@ -8700,10 +8496,8 @@
           <t>4897607138</t>
         </is>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:17:29</t>
-        </is>
+      <c r="H112" s="1" t="n">
+        <v>44390.0121412037</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
@@ -8771,10 +8565,8 @@
           <t>4897596968</t>
         </is>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:15:44</t>
-        </is>
+      <c r="H113" s="1" t="n">
+        <v>44390.01092592593</v>
       </c>
       <c r="I113" t="n">
         <v>1</v>
@@ -8848,10 +8640,8 @@
           <t>4897570046</t>
         </is>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:10:38</t>
-        </is>
+      <c r="H114" s="1" t="n">
+        <v>44390.00738425926</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
@@ -8923,10 +8713,8 @@
           <t>4897538670</t>
         </is>
       </c>
-      <c r="H115" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:06:50</t>
-        </is>
+      <c r="H115" s="1" t="n">
+        <v>44390.00474537037</v>
       </c>
       <c r="I115" t="n">
         <v>1</v>
@@ -8994,10 +8782,8 @@
           <t>4897522036</t>
         </is>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:03:43</t>
-        </is>
+      <c r="H116" s="1" t="n">
+        <v>44390.00258101852</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
@@ -9069,10 +8855,8 @@
           <t>4897513298</t>
         </is>
       </c>
-      <c r="H117" t="inlineStr">
-        <is>
-          <t>2021-07-13 00:03:01</t>
-        </is>
+      <c r="H117" s="1" t="n">
+        <v>44390.00209490741</v>
       </c>
       <c r="I117" t="n">
         <v>2</v>
@@ -9140,10 +8924,8 @@
           <t>4897439211</t>
         </is>
       </c>
-      <c r="H118" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:51:56</t>
-        </is>
+      <c r="H118" s="1" t="n">
+        <v>44389.99439814815</v>
       </c>
       <c r="I118" t="n">
         <v>4</v>
@@ -9219,10 +9001,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H119" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:47:12</t>
-        </is>
+      <c r="H119" s="1" t="n">
+        <v>44389.99111111111</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
@@ -9294,10 +9074,8 @@
           <t>4896545793</t>
         </is>
       </c>
-      <c r="H120" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:44:59</t>
-        </is>
+      <c r="H120" s="1" t="n">
+        <v>44389.98957175926</v>
       </c>
       <c r="I120" t="n">
         <v>2</v>
@@ -9373,10 +9151,8 @@
           <t>4897286634</t>
         </is>
       </c>
-      <c r="H121" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:31:30</t>
-        </is>
+      <c r="H121" s="1" t="n">
+        <v>44389.98020833333</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
@@ -9436,10 +9212,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H122" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:31:05</t>
-        </is>
+      <c r="H122" s="1" t="n">
+        <v>44389.97991898148</v>
       </c>
       <c r="I122" t="n">
         <v>7</v>
@@ -9507,10 +9281,8 @@
           <t>4896970097</t>
         </is>
       </c>
-      <c r="H123" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:30:24</t>
-        </is>
+      <c r="H123" s="1" t="n">
+        <v>44389.97944444444</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
@@ -9586,10 +9358,8 @@
           <t>4897246016</t>
         </is>
       </c>
-      <c r="H124" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:26:13</t>
-        </is>
+      <c r="H124" s="1" t="n">
+        <v>44389.97653935185</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
@@ -9661,10 +9431,8 @@
           <t>4896545793</t>
         </is>
       </c>
-      <c r="H125" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:20:30</t>
-        </is>
+      <c r="H125" s="1" t="n">
+        <v>44389.97256944444</v>
       </c>
       <c r="I125" t="n">
         <v>1</v>
@@ -9733,10 +9501,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H126" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:14:37</t>
-        </is>
+      <c r="H126" s="1" t="n">
+        <v>44389.9684837963</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
@@ -9800,10 +9566,8 @@
           <t>4896405130</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:13:32</t>
-        </is>
+      <c r="H127" s="1" t="n">
+        <v>44389.96773148148</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
@@ -9879,10 +9643,8 @@
           <t>4897128353</t>
         </is>
       </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:11:59</t>
-        </is>
+      <c r="H128" s="1" t="n">
+        <v>44389.96665509259</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
@@ -9954,10 +9716,8 @@
           <t>4897125079</t>
         </is>
       </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:10:42</t>
-        </is>
+      <c r="H129" s="1" t="n">
+        <v>44389.96576388889</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
@@ -10017,10 +9777,8 @@
           <t>4896850378</t>
         </is>
       </c>
-      <c r="H130" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:10:23</t>
-        </is>
+      <c r="H130" s="1" t="n">
+        <v>44389.96554398148</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
@@ -10088,10 +9846,8 @@
           <t>4896337902</t>
         </is>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:10:07</t>
-        </is>
+      <c r="H131" s="1" t="n">
+        <v>44389.9653587963</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
@@ -10167,10 +9923,8 @@
           <t>4896337902</t>
         </is>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:05:49</t>
-        </is>
+      <c r="H132" s="1" t="n">
+        <v>44389.96237268519</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
@@ -10246,10 +10000,8 @@
           <t>4896337902</t>
         </is>
       </c>
-      <c r="H133" t="inlineStr">
-        <is>
-          <t>2021-07-12 23:05:23</t>
-        </is>
+      <c r="H133" s="1" t="n">
+        <v>44389.96207175926</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
@@ -10325,10 +10077,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:59:08</t>
-        </is>
+      <c r="H134" s="1" t="n">
+        <v>44389.95773148148</v>
       </c>
       <c r="I134" t="n">
         <v>5</v>
@@ -10392,10 +10142,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H135" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:59:01</t>
-        </is>
+      <c r="H135" s="1" t="n">
+        <v>44389.95765046297</v>
       </c>
       <c r="I135" t="n">
         <v>4</v>
@@ -10459,10 +10207,8 @@
           <t>4896999839</t>
         </is>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:56:40</t>
-        </is>
+      <c r="H136" s="1" t="n">
+        <v>44389.95601851852</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
@@ -10534,10 +10280,8 @@
           <t>4897001427</t>
         </is>
       </c>
-      <c r="H137" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:55:45</t>
-        </is>
+      <c r="H137" s="1" t="n">
+        <v>44389.95538194444</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
@@ -10609,10 +10353,8 @@
           <t>4896295306</t>
         </is>
       </c>
-      <c r="H138" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:55:25</t>
-        </is>
+      <c r="H138" s="1" t="n">
+        <v>44389.95515046296</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
@@ -10688,10 +10430,8 @@
           <t>4896990149</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:54:49</t>
-        </is>
+      <c r="H139" s="1" t="n">
+        <v>44389.95473379629</v>
       </c>
       <c r="I139" t="n">
         <v>10</v>
@@ -10763,10 +10503,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:52:21</t>
-        </is>
+      <c r="H140" s="1" t="n">
+        <v>44389.95302083333</v>
       </c>
       <c r="I140" t="n">
         <v>1</v>
@@ -10830,10 +10568,8 @@
           <t>4896970097</t>
         </is>
       </c>
-      <c r="H141" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:51:59</t>
-        </is>
+      <c r="H141" s="1" t="n">
+        <v>44389.95276620371</v>
       </c>
       <c r="I141" t="n">
         <v>3</v>
@@ -10901,10 +10637,8 @@
           <t>4896337902</t>
         </is>
       </c>
-      <c r="H142" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:51:58</t>
-        </is>
+      <c r="H142" s="1" t="n">
+        <v>44389.95275462963</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
@@ -10980,10 +10714,8 @@
           <t>4896405130</t>
         </is>
       </c>
-      <c r="H143" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:51:36</t>
-        </is>
+      <c r="H143" s="1" t="n">
+        <v>44389.9525</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
@@ -11047,10 +10779,8 @@
           <t>4896948699</t>
         </is>
       </c>
-      <c r="H144" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:50:16</t>
-        </is>
+      <c r="H144" s="1" t="n">
+        <v>44389.95157407408</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
@@ -11126,10 +10856,8 @@
           <t>4896951225</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:49:57</t>
-        </is>
+      <c r="H145" s="1" t="n">
+        <v>44389.95135416667</v>
       </c>
       <c r="I145" t="n">
         <v>1</v>
@@ -11193,10 +10921,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:49:14</t>
-        </is>
+      <c r="H146" s="1" t="n">
+        <v>44389.95085648148</v>
       </c>
       <c r="I146" t="n">
         <v>1</v>
@@ -11260,10 +10986,8 @@
           <t>4896940269</t>
         </is>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:48:37</t>
-        </is>
+      <c r="H147" s="1" t="n">
+        <v>44389.95042824074</v>
       </c>
       <c r="I147" t="n">
         <v>1</v>
@@ -11331,10 +11055,8 @@
           <t>4896933537</t>
         </is>
       </c>
-      <c r="H148" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:48:02</t>
-        </is>
+      <c r="H148" s="1" t="n">
+        <v>44389.95002314815</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
@@ -11402,10 +11124,8 @@
           <t>4896545793</t>
         </is>
       </c>
-      <c r="H149" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:47:57</t>
-        </is>
+      <c r="H149" s="1" t="n">
+        <v>44389.94996527778</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
@@ -11477,10 +11197,8 @@
           <t>4896927572</t>
         </is>
       </c>
-      <c r="H150" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:47:45</t>
-        </is>
+      <c r="H150" s="1" t="n">
+        <v>44389.94982638889</v>
       </c>
       <c r="I150" t="n">
         <v>1</v>
@@ -11544,10 +11262,8 @@
           <t>4896918571</t>
         </is>
       </c>
-      <c r="H151" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:46:20</t>
-        </is>
+      <c r="H151" s="1" t="n">
+        <v>44389.9488425926</v>
       </c>
       <c r="I151" t="n">
         <v>2</v>
@@ -11623,10 +11339,8 @@
           <t>4896743140</t>
         </is>
       </c>
-      <c r="H152" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:45:01</t>
-        </is>
+      <c r="H152" s="1" t="n">
+        <v>44389.94792824074</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
@@ -11698,10 +11412,8 @@
           <t>4896902558</t>
         </is>
       </c>
-      <c r="H153" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:44:14</t>
-        </is>
+      <c r="H153" s="1" t="n">
+        <v>44389.94738425926</v>
       </c>
       <c r="I153" t="n">
         <v>1</v>
@@ -11777,10 +11489,8 @@
           <t>4896892285</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:42:59</t>
-        </is>
+      <c r="H154" s="1" t="n">
+        <v>44389.9465162037</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
@@ -11856,10 +11566,8 @@
           <t>4896211655</t>
         </is>
       </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:42:02</t>
-        </is>
+      <c r="H155" s="1" t="n">
+        <v>44389.94585648148</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
@@ -11927,10 +11635,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:41:52</t>
-        </is>
+      <c r="H156" s="1" t="n">
+        <v>44389.94574074074</v>
       </c>
       <c r="I156" t="n">
         <v>79</v>
@@ -12006,10 +11712,8 @@
           <t>4896850378</t>
         </is>
       </c>
-      <c r="H157" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:36:43</t>
-        </is>
+      <c r="H157" s="1" t="n">
+        <v>44389.94216435185</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
@@ -12077,10 +11781,8 @@
           <t>4896834191</t>
         </is>
       </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:36:16</t>
-        </is>
+      <c r="H158" s="1" t="n">
+        <v>44389.94185185185</v>
       </c>
       <c r="I158" t="n">
         <v>9</v>
@@ -12152,10 +11854,8 @@
           <t>4896545793</t>
         </is>
       </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:35:07</t>
-        </is>
+      <c r="H159" s="1" t="n">
+        <v>44389.94105324074</v>
       </c>
       <c r="I159" t="n">
         <v>1</v>
@@ -12227,10 +11927,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:34:30</t>
-        </is>
+      <c r="H160" s="1" t="n">
+        <v>44389.940625</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
@@ -12298,10 +11996,8 @@
           <t>4896810757</t>
         </is>
       </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:32:44</t>
-        </is>
+      <c r="H161" s="1" t="n">
+        <v>44389.93939814815</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
@@ -12377,10 +12073,8 @@
           <t>4896808188</t>
         </is>
       </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:32:22</t>
-        </is>
+      <c r="H162" s="1" t="n">
+        <v>44389.93914351852</v>
       </c>
       <c r="I162" t="n">
         <v>5</v>
@@ -12453,10 +12147,8 @@
           <t>4896807505</t>
         </is>
       </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:32:08</t>
-        </is>
+      <c r="H163" s="1" t="n">
+        <v>44389.93898148148</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
@@ -12528,10 +12220,8 @@
           <t>4896801408</t>
         </is>
       </c>
-      <c r="H164" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:31:29</t>
-        </is>
+      <c r="H164" s="1" t="n">
+        <v>44389.93853009259</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
@@ -12607,10 +12297,8 @@
           <t>4896779615</t>
         </is>
       </c>
-      <c r="H165" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:29:25</t>
-        </is>
+      <c r="H165" s="1" t="n">
+        <v>44389.93709490741</v>
       </c>
       <c r="I165" t="n">
         <v>1</v>
@@ -12682,10 +12370,8 @@
           <t>4896781100</t>
         </is>
       </c>
-      <c r="H166" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:28:50</t>
-        </is>
+      <c r="H166" s="1" t="n">
+        <v>44389.93668981481</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
@@ -12761,10 +12447,8 @@
           <t>4896777476</t>
         </is>
       </c>
-      <c r="H167" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:28:42</t>
-        </is>
+      <c r="H167" s="1" t="n">
+        <v>44389.93659722222</v>
       </c>
       <c r="I167" t="n">
         <v>9</v>
@@ -12836,10 +12520,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:28:24</t>
-        </is>
+      <c r="H168" s="1" t="n">
+        <v>44389.93638888889</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
@@ -12907,10 +12589,8 @@
           <t>4896295306</t>
         </is>
       </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:27:46</t>
-        </is>
+      <c r="H169" s="1" t="n">
+        <v>44389.93594907408</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
@@ -12982,10 +12662,8 @@
           <t>4896549963</t>
         </is>
       </c>
-      <c r="H170" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:27:29</t>
-        </is>
+      <c r="H170" s="1" t="n">
+        <v>44389.93575231481</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
@@ -13057,10 +12735,8 @@
           <t>4896767115</t>
         </is>
       </c>
-      <c r="H171" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:27:12</t>
-        </is>
+      <c r="H171" s="1" t="n">
+        <v>44389.93555555555</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
@@ -13136,10 +12812,8 @@
           <t>4896766058</t>
         </is>
       </c>
-      <c r="H172" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:26:46</t>
-        </is>
+      <c r="H172" s="1" t="n">
+        <v>44389.93525462963</v>
       </c>
       <c r="I172" t="n">
         <v>1</v>
@@ -13215,10 +12889,8 @@
           <t>4896743140</t>
         </is>
       </c>
-      <c r="H173" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:24:53</t>
-        </is>
+      <c r="H173" s="1" t="n">
+        <v>44389.93394675926</v>
       </c>
       <c r="I173" t="n">
         <v>2</v>
@@ -13290,10 +12962,8 @@
           <t>4896733966</t>
         </is>
       </c>
-      <c r="H174" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:23:54</t>
-        </is>
+      <c r="H174" s="1" t="n">
+        <v>44389.93326388889</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
@@ -13361,10 +13031,8 @@
           <t>4896721859</t>
         </is>
       </c>
-      <c r="H175" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:23:50</t>
-        </is>
+      <c r="H175" s="1" t="n">
+        <v>44389.9332175926</v>
       </c>
       <c r="I175" t="n">
         <v>2</v>
@@ -13428,10 +13096,8 @@
           <t>4896732225</t>
         </is>
       </c>
-      <c r="H176" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:23:09</t>
-        </is>
+      <c r="H176" s="1" t="n">
+        <v>44389.93274305556</v>
       </c>
       <c r="I176" t="n">
         <v>1</v>
@@ -13500,10 +13166,8 @@
           <t>4896545793</t>
         </is>
       </c>
-      <c r="H177" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:23:00</t>
-        </is>
+      <c r="H177" s="1" t="n">
+        <v>44389.93263888889</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
@@ -13567,10 +13231,8 @@
           <t>4896721859</t>
         </is>
       </c>
-      <c r="H178" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:21:35</t>
-        </is>
+      <c r="H178" s="1" t="n">
+        <v>44389.93165509259</v>
       </c>
       <c r="I178" t="n">
         <v>1</v>
@@ -13634,10 +13296,8 @@
           <t>4896689170</t>
         </is>
       </c>
-      <c r="H179" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:17:55</t>
-        </is>
+      <c r="H179" s="1" t="n">
+        <v>44389.9291087963</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
@@ -13713,10 +13373,8 @@
           <t>4896405130</t>
         </is>
       </c>
-      <c r="H180" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:16:37</t>
-        </is>
+      <c r="H180" s="1" t="n">
+        <v>44389.92820601852</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
@@ -13792,10 +13450,8 @@
           <t>4896405130</t>
         </is>
       </c>
-      <c r="H181" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:16:22</t>
-        </is>
+      <c r="H181" s="1" t="n">
+        <v>44389.92803240741</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
@@ -13874,10 +13530,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H182" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:16:14</t>
-        </is>
+      <c r="H182" s="1" t="n">
+        <v>44389.92793981481</v>
       </c>
       <c r="I182" t="n">
         <v>1</v>
@@ -13949,10 +13603,8 @@
           <t>4896674059</t>
         </is>
       </c>
-      <c r="H183" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:16:00</t>
-        </is>
+      <c r="H183" s="1" t="n">
+        <v>44389.92777777778</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
@@ -14028,10 +13680,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H184" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:15:35</t>
-        </is>
+      <c r="H184" s="1" t="n">
+        <v>44389.92748842593</v>
       </c>
       <c r="I184" t="n">
         <v>1</v>
@@ -14103,10 +13753,8 @@
           <t>4896672385</t>
         </is>
       </c>
-      <c r="H185" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:15:23</t>
-        </is>
+      <c r="H185" s="1" t="n">
+        <v>44389.92734953704</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
@@ -14182,10 +13830,8 @@
           <t>4896670040</t>
         </is>
       </c>
-      <c r="H186" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:14:32</t>
-        </is>
+      <c r="H186" s="1" t="n">
+        <v>44389.92675925926</v>
       </c>
       <c r="I186" t="n">
         <v>1</v>
@@ -14257,10 +13903,8 @@
           <t>4896652606</t>
         </is>
       </c>
-      <c r="H187" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:13:13</t>
-        </is>
+      <c r="H187" s="1" t="n">
+        <v>44389.9258449074</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
@@ -14336,10 +13980,8 @@
           <t>4896646630</t>
         </is>
       </c>
-      <c r="H188" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:12:47</t>
-        </is>
+      <c r="H188" s="1" t="n">
+        <v>44389.92554398148</v>
       </c>
       <c r="I188" t="n">
         <v>24</v>
@@ -14411,10 +14053,8 @@
           <t>4896646399</t>
         </is>
       </c>
-      <c r="H189" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:12:41</t>
-        </is>
+      <c r="H189" s="1" t="n">
+        <v>44389.92547453703</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
@@ -14482,10 +14122,8 @@
           <t>4896644385</t>
         </is>
       </c>
-      <c r="H190" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:12:26</t>
-        </is>
+      <c r="H190" s="1" t="n">
+        <v>44389.92530092593</v>
       </c>
       <c r="I190" t="n">
         <v>2</v>
@@ -14557,10 +14195,8 @@
           <t>4896337902</t>
         </is>
       </c>
-      <c r="H191" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:12:13</t>
-        </is>
+      <c r="H191" s="1" t="n">
+        <v>44389.92515046296</v>
       </c>
       <c r="I191" t="n">
         <v>4</v>
@@ -14636,10 +14272,8 @@
           <t>4896641027</t>
         </is>
       </c>
-      <c r="H192" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:11:10</t>
-        </is>
+      <c r="H192" s="1" t="n">
+        <v>44389.92442129629</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
@@ -14715,10 +14349,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H193" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:10:46</t>
-        </is>
+      <c r="H193" s="1" t="n">
+        <v>44389.92414351852</v>
       </c>
       <c r="I193" t="n">
         <v>6</v>
@@ -14786,10 +14418,8 @@
           <t>4896405130</t>
         </is>
       </c>
-      <c r="H194" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:10:41</t>
-        </is>
+      <c r="H194" s="1" t="n">
+        <v>44389.92408564815</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
@@ -14861,10 +14491,8 @@
           <t>4896619204</t>
         </is>
       </c>
-      <c r="H195" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:09:45</t>
-        </is>
+      <c r="H195" s="1" t="n">
+        <v>44389.9234375</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
@@ -14940,10 +14568,8 @@
           <t>4896609286</t>
         </is>
       </c>
-      <c r="H196" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:08:41</t>
-        </is>
+      <c r="H196" s="1" t="n">
+        <v>44389.92269675926</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
@@ -15015,10 +14641,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:07:48</t>
-        </is>
+      <c r="H197" s="1" t="n">
+        <v>44389.92208333333</v>
       </c>
       <c r="I197" t="n">
         <v>1</v>
@@ -15094,10 +14718,8 @@
           <t>4896598867</t>
         </is>
       </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:06:42</t>
-        </is>
+      <c r="H198" s="1" t="n">
+        <v>44389.92131944445</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
@@ -15169,10 +14791,8 @@
           <t>4896592468</t>
         </is>
       </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:06:06</t>
-        </is>
+      <c r="H199" s="1" t="n">
+        <v>44389.92090277778</v>
       </c>
       <c r="I199" t="n">
         <v>1</v>
@@ -15248,10 +14868,8 @@
           <t>4896588141</t>
         </is>
       </c>
-      <c r="H200" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:05:11</t>
-        </is>
+      <c r="H200" s="1" t="n">
+        <v>44389.92026620371</v>
       </c>
       <c r="I200" t="n">
         <v>4</v>
@@ -15315,10 +14933,8 @@
           <t>4896496283</t>
         </is>
       </c>
-      <c r="H201" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:03:51</t>
-        </is>
+      <c r="H201" s="1" t="n">
+        <v>44389.91934027777</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
@@ -15386,10 +15002,8 @@
           <t>4896569532</t>
         </is>
       </c>
-      <c r="H202" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:03:23</t>
-        </is>
+      <c r="H202" s="1" t="n">
+        <v>44389.9190162037</v>
       </c>
       <c r="I202" t="n">
         <v>2</v>
@@ -15453,10 +15067,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H203" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:02:53</t>
-        </is>
+      <c r="H203" s="1" t="n">
+        <v>44389.91866898148</v>
       </c>
       <c r="I203" t="n">
         <v>2</v>
@@ -15528,10 +15140,8 @@
           <t>4896563399</t>
         </is>
       </c>
-      <c r="H204" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:02:42</t>
-        </is>
+      <c r="H204" s="1" t="n">
+        <v>44389.91854166667</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
@@ -15595,10 +15205,8 @@
           <t>4896545793</t>
         </is>
       </c>
-      <c r="H205" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:02:34</t>
-        </is>
+      <c r="H205" s="1" t="n">
+        <v>44389.91844907407</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
@@ -15667,10 +15275,8 @@
           <t>4896566264</t>
         </is>
       </c>
-      <c r="H206" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:02:13</t>
-        </is>
+      <c r="H206" s="1" t="n">
+        <v>44389.91820601852</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
@@ -15734,10 +15340,8 @@
           <t>4896545793</t>
         </is>
       </c>
-      <c r="H207" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:02:09</t>
-        </is>
+      <c r="H207" s="1" t="n">
+        <v>44389.91815972222</v>
       </c>
       <c r="I207" t="n">
         <v>8</v>
@@ -15813,10 +15417,8 @@
           <t>4896570135</t>
         </is>
       </c>
-      <c r="H208" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:01:49</t>
-        </is>
+      <c r="H208" s="1" t="n">
+        <v>44389.91792824074</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
@@ -15884,10 +15486,8 @@
           <t>4896559036</t>
         </is>
       </c>
-      <c r="H209" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:01:26</t>
-        </is>
+      <c r="H209" s="1" t="n">
+        <v>44389.91766203703</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
@@ -15963,10 +15563,8 @@
           <t>4896549963</t>
         </is>
       </c>
-      <c r="H210" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:01:25</t>
-        </is>
+      <c r="H210" s="1" t="n">
+        <v>44389.91765046296</v>
       </c>
       <c r="I210" t="n">
         <v>3</v>
@@ -16038,10 +15636,8 @@
           <t>4896553900</t>
         </is>
       </c>
-      <c r="H211" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:01:20</t>
-        </is>
+      <c r="H211" s="1" t="n">
+        <v>44389.9175925926</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
@@ -16105,10 +15701,8 @@
           <t>4896552531</t>
         </is>
       </c>
-      <c r="H212" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:00:45</t>
-        </is>
+      <c r="H212" s="1" t="n">
+        <v>44389.9171875</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
@@ -16168,10 +15762,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H213" t="inlineStr">
-        <is>
-          <t>2021-07-12 22:00:12</t>
-        </is>
+      <c r="H213" s="1" t="n">
+        <v>44389.91680555556</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
@@ -16237,10 +15829,8 @@
           <t>4896545793</t>
         </is>
       </c>
-      <c r="H214" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:59:47</t>
-        </is>
+      <c r="H214" s="1" t="n">
+        <v>44389.9165162037</v>
       </c>
       <c r="I214" t="n">
         <v>1</v>
@@ -16309,10 +15899,8 @@
           <t>4896200774</t>
         </is>
       </c>
-      <c r="H215" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:59:06</t>
-        </is>
+      <c r="H215" s="1" t="n">
+        <v>44389.91604166666</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
@@ -16384,10 +15972,8 @@
           <t>4896535545</t>
         </is>
       </c>
-      <c r="H216" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:57:44</t>
-        </is>
+      <c r="H216" s="1" t="n">
+        <v>44389.91509259259</v>
       </c>
       <c r="I216" t="n">
         <v>23</v>
@@ -16463,10 +16049,8 @@
           <t>4896337902</t>
         </is>
       </c>
-      <c r="H217" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:57:29</t>
-        </is>
+      <c r="H217" s="1" t="n">
+        <v>44389.91491898148</v>
       </c>
       <c r="I217" t="n">
         <v>1</v>
@@ -16536,10 +16120,8 @@
           <t>4896527653</t>
         </is>
       </c>
-      <c r="H218" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:57:16</t>
-        </is>
+      <c r="H218" s="1" t="n">
+        <v>44389.91476851852</v>
       </c>
       <c r="I218" t="n">
         <v>6</v>
@@ -16611,10 +16193,8 @@
           <t>4896527353</t>
         </is>
       </c>
-      <c r="H219" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:57:09</t>
-        </is>
+      <c r="H219" s="1" t="n">
+        <v>44389.9146875</v>
       </c>
       <c r="I219" t="n">
         <v>4</v>
@@ -16690,10 +16270,8 @@
           <t>4896295306</t>
         </is>
       </c>
-      <c r="H220" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:56:33</t>
-        </is>
+      <c r="H220" s="1" t="n">
+        <v>44389.91427083333</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
@@ -16765,10 +16343,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H221" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:55:48</t>
-        </is>
+      <c r="H221" s="1" t="n">
+        <v>44389.91375</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
@@ -16836,10 +16412,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H222" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:55:01</t>
-        </is>
+      <c r="H222" s="1" t="n">
+        <v>44389.91320601852</v>
       </c>
       <c r="I222" t="n">
         <v>9</v>
@@ -16916,10 +16490,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H223" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:53:54</t>
-        </is>
+      <c r="H223" s="1" t="n">
+        <v>44389.91243055555</v>
       </c>
       <c r="I223" t="n">
         <v>9</v>
@@ -16991,10 +16563,8 @@
           <t>4896494956</t>
         </is>
       </c>
-      <c r="H224" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:53:36</t>
-        </is>
+      <c r="H224" s="1" t="n">
+        <v>44389.91222222222</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
@@ -17066,10 +16636,8 @@
           <t>4896497351</t>
         </is>
       </c>
-      <c r="H225" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:53:31</t>
-        </is>
+      <c r="H225" s="1" t="n">
+        <v>44389.91216435185</v>
       </c>
       <c r="I225" t="n">
         <v>32</v>
@@ -17145,10 +16713,8 @@
           <t>4896493925</t>
         </is>
       </c>
-      <c r="H226" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:53:11</t>
-        </is>
+      <c r="H226" s="1" t="n">
+        <v>44389.91193287037</v>
       </c>
       <c r="I226" t="n">
         <v>34</v>
@@ -17216,10 +16782,8 @@
           <t>4896496283</t>
         </is>
       </c>
-      <c r="H227" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:53:07</t>
-        </is>
+      <c r="H227" s="1" t="n">
+        <v>44389.91188657407</v>
       </c>
       <c r="I227" t="n">
         <v>1</v>
@@ -17291,10 +16855,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H228" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:52:53</t>
-        </is>
+      <c r="H228" s="1" t="n">
+        <v>44389.91172453704</v>
       </c>
       <c r="I228" t="n">
         <v>1</v>
@@ -17362,10 +16924,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H229" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:52:22</t>
-        </is>
+      <c r="H229" s="1" t="n">
+        <v>44389.91136574074</v>
       </c>
       <c r="I229" t="n">
         <v>3</v>
@@ -17429,10 +16989,8 @@
           <t>4896484112</t>
         </is>
       </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:52:19</t>
-        </is>
+      <c r="H230" s="1" t="n">
+        <v>44389.91133101852</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
@@ -17504,10 +17062,8 @@
           <t>4896490662</t>
         </is>
       </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:51:52</t>
-        </is>
+      <c r="H231" s="1" t="n">
+        <v>44389.91101851852</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
@@ -17583,10 +17139,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:48:29</t>
-        </is>
+      <c r="H232" s="1" t="n">
+        <v>44389.90866898148</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
@@ -17662,10 +17216,8 @@
           <t>4896457210</t>
         </is>
       </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:47:53</t>
-        </is>
+      <c r="H233" s="1" t="n">
+        <v>44389.90825231482</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
@@ -17733,10 +17285,8 @@
           <t>4896456715</t>
         </is>
       </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:47:43</t>
-        </is>
+      <c r="H234" s="1" t="n">
+        <v>44389.90813657407</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
@@ -17812,10 +17362,8 @@
           <t>4896295306</t>
         </is>
       </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:45:56</t>
-        </is>
+      <c r="H235" s="1" t="n">
+        <v>44389.90689814815</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
@@ -17879,10 +17427,8 @@
           <t>4896295306</t>
         </is>
       </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:45:55</t>
-        </is>
+      <c r="H236" s="1" t="n">
+        <v>44389.90688657408</v>
       </c>
       <c r="I236" t="n">
         <v>5</v>
@@ -17958,10 +17504,8 @@
           <t>4896445021</t>
         </is>
       </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:45:42</t>
-        </is>
+      <c r="H237" s="1" t="n">
+        <v>44389.90673611111</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
@@ -18037,10 +17581,8 @@
           <t>4896434676</t>
         </is>
       </c>
-      <c r="H238" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:45:33</t>
-        </is>
+      <c r="H238" s="1" t="n">
+        <v>44389.90663194445</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
@@ -18116,10 +17658,8 @@
           <t>4896440383</t>
         </is>
       </c>
-      <c r="H239" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:45:24</t>
-        </is>
+      <c r="H239" s="1" t="n">
+        <v>44389.90652777778</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
@@ -18195,10 +17735,8 @@
           <t>4896424582</t>
         </is>
       </c>
-      <c r="H240" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:44:28</t>
-        </is>
+      <c r="H240" s="1" t="n">
+        <v>44389.90587962963</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
@@ -18266,10 +17804,8 @@
           <t>4896405130</t>
         </is>
       </c>
-      <c r="H241" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:43:16</t>
-        </is>
+      <c r="H241" s="1" t="n">
+        <v>44389.9050462963</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
@@ -18341,10 +17877,8 @@
           <t>4896411508</t>
         </is>
       </c>
-      <c r="H242" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:42:07</t>
-        </is>
+      <c r="H242" s="1" t="n">
+        <v>44389.90424768518</v>
       </c>
       <c r="I242" t="n">
         <v>1</v>
@@ -18412,10 +17946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H243" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:41:50</t>
-        </is>
+      <c r="H243" s="1" t="n">
+        <v>44389.90405092593</v>
       </c>
       <c r="I243" t="n">
         <v>1</v>
@@ -18479,10 +18011,8 @@
           <t>4896410746</t>
         </is>
       </c>
-      <c r="H244" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:41:50</t>
-        </is>
+      <c r="H244" s="1" t="n">
+        <v>44389.90405092593</v>
       </c>
       <c r="I244" t="n">
         <v>2</v>
@@ -18558,10 +18088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H245" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:41:43</t>
-        </is>
+      <c r="H245" s="1" t="n">
+        <v>44389.90396990741</v>
       </c>
       <c r="I245" t="n">
         <v>793</v>
@@ -18633,10 +18161,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H246" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:41:37</t>
-        </is>
+      <c r="H246" s="1" t="n">
+        <v>44389.90390046296</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
@@ -18708,10 +18234,8 @@
           <t>4896407673</t>
         </is>
       </c>
-      <c r="H247" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:41:27</t>
-        </is>
+      <c r="H247" s="1" t="n">
+        <v>44389.90378472222</v>
       </c>
       <c r="I247" t="n">
         <v>5</v>
@@ -18783,10 +18307,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H248" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:41:08</t>
-        </is>
+      <c r="H248" s="1" t="n">
+        <v>44389.90356481481</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
@@ -18850,10 +18372,8 @@
           <t>4896239939</t>
         </is>
       </c>
-      <c r="H249" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:40:43</t>
-        </is>
+      <c r="H249" s="1" t="n">
+        <v>44389.90327546297</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
@@ -18921,10 +18441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H250" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:40:27</t>
-        </is>
+      <c r="H250" s="1" t="n">
+        <v>44389.90309027778</v>
       </c>
       <c r="I250" t="n">
         <v>52</v>
@@ -19000,10 +18518,8 @@
           <t>4896405130</t>
         </is>
       </c>
-      <c r="H251" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:40:19</t>
-        </is>
+      <c r="H251" s="1" t="n">
+        <v>44389.90299768518</v>
       </c>
       <c r="I251" t="n">
         <v>1</v>
@@ -19079,10 +18595,8 @@
           <t>4896337902</t>
         </is>
       </c>
-      <c r="H252" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:40:08</t>
-        </is>
+      <c r="H252" s="1" t="n">
+        <v>44389.90287037037</v>
       </c>
       <c r="I252" t="n">
         <v>4</v>
@@ -19158,10 +18672,8 @@
           <t>4896396153</t>
         </is>
       </c>
-      <c r="H253" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:40:02</t>
-        </is>
+      <c r="H253" s="1" t="n">
+        <v>44389.90280092593</v>
       </c>
       <c r="I253" t="n">
         <v>1</v>
@@ -19237,10 +18749,8 @@
           <t>4896394176</t>
         </is>
       </c>
-      <c r="H254" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:39:53</t>
-        </is>
+      <c r="H254" s="1" t="n">
+        <v>44389.90269675926</v>
       </c>
       <c r="I254" t="n">
         <v>1</v>
@@ -19304,10 +18814,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H255" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:39:46</t>
-        </is>
+      <c r="H255" s="1" t="n">
+        <v>44389.90261574074</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
@@ -19367,10 +18875,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H256" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:39:38</t>
-        </is>
+      <c r="H256" s="1" t="n">
+        <v>44389.90252314815</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
@@ -19438,10 +18944,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H257" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:39:35</t>
-        </is>
+      <c r="H257" s="1" t="n">
+        <v>44389.90248842593</v>
       </c>
       <c r="I257" t="n">
         <v>23</v>
@@ -19509,10 +19013,8 @@
           <t>4896392260</t>
         </is>
       </c>
-      <c r="H258" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:39:01</t>
-        </is>
+      <c r="H258" s="1" t="n">
+        <v>44389.9020949074</v>
       </c>
       <c r="I258" t="n">
         <v>2</v>
@@ -19588,10 +19090,8 @@
           <t>4896388330</t>
         </is>
       </c>
-      <c r="H259" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:38:57</t>
-        </is>
+      <c r="H259" s="1" t="n">
+        <v>44389.90204861111</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
@@ -19655,10 +19155,8 @@
           <t>4896330360</t>
         </is>
       </c>
-      <c r="H260" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:38:50</t>
-        </is>
+      <c r="H260" s="1" t="n">
+        <v>44389.9019675926</v>
       </c>
       <c r="I260" t="n">
         <v>7</v>
@@ -19726,10 +19224,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H261" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:38:38</t>
-        </is>
+      <c r="H261" s="1" t="n">
+        <v>44389.9018287037</v>
       </c>
       <c r="I261" t="n">
         <v>1</v>
@@ -19805,10 +19301,8 @@
           <t>4896390525</t>
         </is>
       </c>
-      <c r="H262" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:38:15</t>
-        </is>
+      <c r="H262" s="1" t="n">
+        <v>44389.9015625</v>
       </c>
       <c r="I262" t="n">
         <v>16</v>
@@ -19884,10 +19378,8 @@
           <t>4896381398</t>
         </is>
       </c>
-      <c r="H263" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:38:13</t>
-        </is>
+      <c r="H263" s="1" t="n">
+        <v>44389.90153935185</v>
       </c>
       <c r="I263" t="n">
         <v>1</v>
@@ -19955,10 +19447,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H264" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:38:10</t>
-        </is>
+      <c r="H264" s="1" t="n">
+        <v>44389.90150462963</v>
       </c>
       <c r="I264" t="n">
         <v>1</v>
@@ -20026,10 +19516,8 @@
           <t>4896211655</t>
         </is>
       </c>
-      <c r="H265" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:38:09</t>
-        </is>
+      <c r="H265" s="1" t="n">
+        <v>44389.90149305556</v>
       </c>
       <c r="I265" t="n">
         <v>2</v>
@@ -20093,10 +19581,8 @@
           <t>4896337902</t>
         </is>
       </c>
-      <c r="H266" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:37:57</t>
-        </is>
+      <c r="H266" s="1" t="n">
+        <v>44389.90135416666</v>
       </c>
       <c r="I266" t="n">
         <v>9</v>
@@ -20164,10 +19650,8 @@
           <t>4896369932</t>
         </is>
       </c>
-      <c r="H267" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:37:38</t>
-        </is>
+      <c r="H267" s="1" t="n">
+        <v>44389.90113425926</v>
       </c>
       <c r="I267" t="n">
         <v>4</v>
@@ -20231,10 +19715,8 @@
           <t>4896378870</t>
         </is>
       </c>
-      <c r="H268" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:37:30</t>
-        </is>
+      <c r="H268" s="1" t="n">
+        <v>44389.90104166666</v>
       </c>
       <c r="I268" t="n">
         <v>2</v>
@@ -20306,10 +19788,8 @@
           <t>4896225359</t>
         </is>
       </c>
-      <c r="H269" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:37:29</t>
-        </is>
+      <c r="H269" s="1" t="n">
+        <v>44389.90103009259</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
@@ -20385,10 +19865,8 @@
           <t>4896373590</t>
         </is>
       </c>
-      <c r="H270" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:37:07</t>
-        </is>
+      <c r="H270" s="1" t="n">
+        <v>44389.90077546296</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
@@ -20452,10 +19930,8 @@
           <t>4896377767</t>
         </is>
       </c>
-      <c r="H271" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:37:00</t>
-        </is>
+      <c r="H271" s="1" t="n">
+        <v>44389.90069444444</v>
       </c>
       <c r="I271" t="n">
         <v>4</v>
@@ -20531,10 +20007,8 @@
           <t>4896279764</t>
         </is>
       </c>
-      <c r="H272" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:36:45</t>
-        </is>
+      <c r="H272" s="1" t="n">
+        <v>44389.90052083333</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
@@ -20602,10 +20076,8 @@
           <t>4896370992</t>
         </is>
       </c>
-      <c r="H273" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:36:08</t>
-        </is>
+      <c r="H273" s="1" t="n">
+        <v>44389.90009259259</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
@@ -20673,10 +20145,8 @@
           <t>4896370851</t>
         </is>
       </c>
-      <c r="H274" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:36:04</t>
-        </is>
+      <c r="H274" s="1" t="n">
+        <v>44389.90004629629</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
@@ -20744,10 +20214,8 @@
           <t>4896365069</t>
         </is>
       </c>
-      <c r="H275" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:35:38</t>
-        </is>
+      <c r="H275" s="1" t="n">
+        <v>44389.89974537037</v>
       </c>
       <c r="I275" t="n">
         <v>5</v>
@@ -20823,10 +20291,8 @@
           <t>4896364026</t>
         </is>
       </c>
-      <c r="H276" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:35:22</t>
-        </is>
+      <c r="H276" s="1" t="n">
+        <v>44389.89956018519</v>
       </c>
       <c r="I276" t="n">
         <v>1</v>
@@ -20898,10 +20364,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H277" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:35:14</t>
-        </is>
+      <c r="H277" s="1" t="n">
+        <v>44389.89946759259</v>
       </c>
       <c r="I277" t="n">
         <v>12</v>
@@ -20973,10 +20437,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H278" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:34:57</t>
-        </is>
+      <c r="H278" s="1" t="n">
+        <v>44389.89927083333</v>
       </c>
       <c r="I278" t="n">
         <v>1</v>
@@ -21048,10 +20510,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H279" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:34:55</t>
-        </is>
+      <c r="H279" s="1" t="n">
+        <v>44389.89924768519</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
@@ -21127,10 +20587,8 @@
           <t>4896361989</t>
         </is>
       </c>
-      <c r="H280" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:34:36</t>
-        </is>
+      <c r="H280" s="1" t="n">
+        <v>44389.89902777778</v>
       </c>
       <c r="I280" t="n">
         <v>4</v>
@@ -21206,10 +20664,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H281" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:34:14</t>
-        </is>
+      <c r="H281" s="1" t="n">
+        <v>44389.89877314815</v>
       </c>
       <c r="I281" t="n">
         <v>1</v>
@@ -21273,10 +20729,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H282" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:33:37</t>
-        </is>
+      <c r="H282" s="1" t="n">
+        <v>44389.89834490741</v>
       </c>
       <c r="I282" t="n">
         <v>1</v>
@@ -21352,10 +20806,8 @@
           <t>4896340946</t>
         </is>
       </c>
-      <c r="H283" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:33:01</t>
-        </is>
+      <c r="H283" s="1" t="n">
+        <v>44389.89792824074</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
@@ -21423,10 +20875,8 @@
           <t>4896340946</t>
         </is>
       </c>
-      <c r="H284" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:32:46</t>
-        </is>
+      <c r="H284" s="1" t="n">
+        <v>44389.89775462963</v>
       </c>
       <c r="I284" t="n">
         <v>1</v>
@@ -21494,10 +20944,8 @@
           <t>4896337902</t>
         </is>
       </c>
-      <c r="H285" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:32:41</t>
-        </is>
+      <c r="H285" s="1" t="n">
+        <v>44389.89769675926</v>
       </c>
       <c r="I285" t="n">
         <v>1</v>
@@ -21565,10 +21013,8 @@
           <t>4896342672</t>
         </is>
       </c>
-      <c r="H286" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:32:39</t>
-        </is>
+      <c r="H286" s="1" t="n">
+        <v>44389.89767361111</v>
       </c>
       <c r="I286" t="n">
         <v>4</v>
@@ -21632,10 +21078,8 @@
           <t>4896337195</t>
         </is>
       </c>
-      <c r="H287" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:32:22</t>
-        </is>
+      <c r="H287" s="1" t="n">
+        <v>44389.89747685185</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
@@ -21707,10 +21151,8 @@
           <t>4896341834</t>
         </is>
       </c>
-      <c r="H288" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:32:19</t>
-        </is>
+      <c r="H288" s="1" t="n">
+        <v>44389.89744212963</v>
       </c>
       <c r="I288" t="n">
         <v>16</v>
@@ -21774,10 +21216,8 @@
           <t>4896337000</t>
         </is>
       </c>
-      <c r="H289" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:32:17</t>
-        </is>
+      <c r="H289" s="1" t="n">
+        <v>44389.89741898148</v>
       </c>
       <c r="I289" t="n">
         <v>25</v>
@@ -21841,10 +21281,8 @@
           <t>4896341357</t>
         </is>
       </c>
-      <c r="H290" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:32:08</t>
-        </is>
+      <c r="H290" s="1" t="n">
+        <v>44389.89731481481</v>
       </c>
       <c r="I290" t="n">
         <v>9</v>
@@ -21920,10 +21358,8 @@
           <t>4896340946</t>
         </is>
       </c>
-      <c r="H291" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:31:58</t>
-        </is>
+      <c r="H291" s="1" t="n">
+        <v>44389.89719907408</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
@@ -21999,10 +21435,8 @@
           <t>4896239939</t>
         </is>
       </c>
-      <c r="H292" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:31:35</t>
-        </is>
+      <c r="H292" s="1" t="n">
+        <v>44389.89693287037</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
@@ -22074,10 +21508,8 @@
           <t>4896333577</t>
         </is>
       </c>
-      <c r="H293" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:31:22</t>
-        </is>
+      <c r="H293" s="1" t="n">
+        <v>44389.89678240741</v>
       </c>
       <c r="I293" t="n">
         <v>9</v>
@@ -22145,10 +21577,8 @@
           <t>4896328826</t>
         </is>
       </c>
-      <c r="H294" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:31:07</t>
-        </is>
+      <c r="H294" s="1" t="n">
+        <v>44389.8966087963</v>
       </c>
       <c r="I294" t="n">
         <v>33</v>
@@ -22216,10 +21646,8 @@
           <t>4896323853</t>
         </is>
       </c>
-      <c r="H295" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:30:53</t>
-        </is>
+      <c r="H295" s="1" t="n">
+        <v>44389.89644675926</v>
       </c>
       <c r="I295" t="n">
         <v>18</v>
@@ -22295,10 +21723,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H296" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:30:45</t>
-        </is>
+      <c r="H296" s="1" t="n">
+        <v>44389.89635416667</v>
       </c>
       <c r="I296" t="n">
         <v>7</v>
@@ -22370,10 +21796,8 @@
           <t>4896327926</t>
         </is>
       </c>
-      <c r="H297" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:30:45</t>
-        </is>
+      <c r="H297" s="1" t="n">
+        <v>44389.89635416667</v>
       </c>
       <c r="I297" t="n">
         <v>3</v>
@@ -22441,10 +21865,8 @@
           <t>4896323324</t>
         </is>
       </c>
-      <c r="H298" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:30:38</t>
-        </is>
+      <c r="H298" s="1" t="n">
+        <v>44389.89627314815</v>
       </c>
       <c r="I298" t="n">
         <v>10</v>
@@ -22520,10 +21942,8 @@
           <t>4896330907</t>
         </is>
       </c>
-      <c r="H299" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:30:22</t>
-        </is>
+      <c r="H299" s="1" t="n">
+        <v>44389.89608796296</v>
       </c>
       <c r="I299" t="n">
         <v>6</v>
@@ -22599,10 +22019,8 @@
           <t>4896330360</t>
         </is>
       </c>
-      <c r="H300" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:30:09</t>
-        </is>
+      <c r="H300" s="1" t="n">
+        <v>44389.8959375</v>
       </c>
       <c r="I300" t="n">
         <v>65</v>
@@ -22674,10 +22092,8 @@
           <t>4896321749</t>
         </is>
       </c>
-      <c r="H301" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:29:57</t>
-        </is>
+      <c r="H301" s="1" t="n">
+        <v>44389.89579861111</v>
       </c>
       <c r="I301" t="n">
         <v>4</v>
@@ -22749,10 +22165,8 @@
           <t>4896313590</t>
         </is>
       </c>
-      <c r="H302" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:28:59</t>
-        </is>
+      <c r="H302" s="1" t="n">
+        <v>44389.89512731481</v>
       </c>
       <c r="I302" t="n">
         <v>1</v>
@@ -22828,10 +22242,8 @@
           <t>4896295306</t>
         </is>
       </c>
-      <c r="H303" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:27:56</t>
-        </is>
+      <c r="H303" s="1" t="n">
+        <v>44389.89439814815</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
@@ -22895,10 +22307,8 @@
           <t>4896310375</t>
         </is>
       </c>
-      <c r="H304" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:27:42</t>
-        </is>
+      <c r="H304" s="1" t="n">
+        <v>44389.89423611111</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
@@ -22966,10 +22376,8 @@
           <t>4896306536</t>
         </is>
       </c>
-      <c r="H305" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:27:38</t>
-        </is>
+      <c r="H305" s="1" t="n">
+        <v>44389.89418981481</v>
       </c>
       <c r="I305" t="n">
         <v>5</v>
@@ -23033,10 +22441,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H306" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:27:35</t>
-        </is>
+      <c r="H306" s="1" t="n">
+        <v>44389.8941550926</v>
       </c>
       <c r="I306" t="n">
         <v>162</v>
@@ -23104,10 +22510,8 @@
           <t>4896301855</t>
         </is>
       </c>
-      <c r="H307" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:26:56</t>
-        </is>
+      <c r="H307" s="1" t="n">
+        <v>44389.8937037037</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
@@ -23183,10 +22587,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H308" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:26:51</t>
-        </is>
+      <c r="H308" s="1" t="n">
+        <v>44389.89364583333</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
@@ -23250,10 +22652,8 @@
           <t>4896293837</t>
         </is>
       </c>
-      <c r="H309" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:26:49</t>
-        </is>
+      <c r="H309" s="1" t="n">
+        <v>44389.89362268519</v>
       </c>
       <c r="I309" t="n">
         <v>1</v>
@@ -23321,10 +22721,8 @@
           <t>4896297682</t>
         </is>
       </c>
-      <c r="H310" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:26:35</t>
-        </is>
+      <c r="H310" s="1" t="n">
+        <v>44389.89346064815</v>
       </c>
       <c r="I310" t="n">
         <v>17</v>
@@ -23400,10 +22798,8 @@
           <t>4896293837</t>
         </is>
       </c>
-      <c r="H311" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:26:28</t>
-        </is>
+      <c r="H311" s="1" t="n">
+        <v>44389.89337962963</v>
       </c>
       <c r="I311" t="n">
         <v>2</v>
@@ -23471,10 +22867,8 @@
           <t>4896300610</t>
         </is>
       </c>
-      <c r="H312" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:26:27</t>
-        </is>
+      <c r="H312" s="1" t="n">
+        <v>44389.89336805556</v>
       </c>
       <c r="I312" t="n">
         <v>1</v>
@@ -23551,10 +22945,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H313" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:26:18</t>
-        </is>
+      <c r="H313" s="1" t="n">
+        <v>44389.89326388889</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
@@ -23618,10 +23010,8 @@
           <t>4896239939</t>
         </is>
       </c>
-      <c r="H314" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:26:09</t>
-        </is>
+      <c r="H314" s="1" t="n">
+        <v>44389.89315972223</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
@@ -23691,10 +23081,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H315" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:25:55</t>
-        </is>
+      <c r="H315" s="1" t="n">
+        <v>44389.89299768519</v>
       </c>
       <c r="I315" t="n">
         <v>57</v>
@@ -23762,10 +23150,8 @@
           <t>4896295306</t>
         </is>
       </c>
-      <c r="H316" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:25:39</t>
-        </is>
+      <c r="H316" s="1" t="n">
+        <v>44389.8928125</v>
       </c>
       <c r="I316" t="n">
         <v>18</v>
@@ -23837,10 +23223,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H317" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:25:38</t>
-        </is>
+      <c r="H317" s="1" t="n">
+        <v>44389.89280092593</v>
       </c>
       <c r="I317" t="n">
         <v>2</v>
@@ -23912,10 +23296,8 @@
           <t>4896239939</t>
         </is>
       </c>
-      <c r="H318" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:25:33</t>
-        </is>
+      <c r="H318" s="1" t="n">
+        <v>44389.89274305556</v>
       </c>
       <c r="I318" t="n">
         <v>6</v>
@@ -23983,10 +23365,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H319" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:25:26</t>
-        </is>
+      <c r="H319" s="1" t="n">
+        <v>44389.89266203704</v>
       </c>
       <c r="I319" t="n">
         <v>3</v>
@@ -24062,10 +23442,8 @@
           <t>4896279764</t>
         </is>
       </c>
-      <c r="H320" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:24:42</t>
-        </is>
+      <c r="H320" s="1" t="n">
+        <v>44389.89215277778</v>
       </c>
       <c r="I320" t="n">
         <v>3</v>
@@ -24141,10 +23519,8 @@
           <t>4896278503</t>
         </is>
       </c>
-      <c r="H321" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:24:10</t>
-        </is>
+      <c r="H321" s="1" t="n">
+        <v>44389.89178240741</v>
       </c>
       <c r="I321" t="n">
         <v>5</v>
@@ -24208,10 +23584,8 @@
           <t>4896239939</t>
         </is>
       </c>
-      <c r="H322" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:23:52</t>
-        </is>
+      <c r="H322" s="1" t="n">
+        <v>44389.89157407408</v>
       </c>
       <c r="I322" t="n">
         <v>1</v>
@@ -24283,10 +23657,8 @@
           <t>4896182928</t>
         </is>
       </c>
-      <c r="H323" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:23:25</t>
-        </is>
+      <c r="H323" s="1" t="n">
+        <v>44389.89126157408</v>
       </c>
       <c r="I323" t="n">
         <v>0</v>
@@ -24405,10 +23777,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H324" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:23:13</t>
-        </is>
+      <c r="H324" s="1" t="n">
+        <v>44389.89112268519</v>
       </c>
       <c r="I324" t="n">
         <v>3</v>
@@ -24476,10 +23846,8 @@
           <t>4896271250</t>
         </is>
       </c>
-      <c r="H325" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:22:55</t>
-        </is>
+      <c r="H325" s="1" t="n">
+        <v>44389.89091435185</v>
       </c>
       <c r="I325" t="n">
         <v>5</v>
@@ -24543,10 +23911,8 @@
           <t>4896200774</t>
         </is>
       </c>
-      <c r="H326" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:22:55</t>
-        </is>
+      <c r="H326" s="1" t="n">
+        <v>44389.89091435185</v>
       </c>
       <c r="I326" t="n">
         <v>2</v>
@@ -24606,10 +23972,8 @@
           <t>4896182928</t>
         </is>
       </c>
-      <c r="H327" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:21:57</t>
-        </is>
+      <c r="H327" s="1" t="n">
+        <v>44389.89024305555</v>
       </c>
       <c r="I327" t="n">
         <v>1</v>
@@ -24681,10 +24045,8 @@
           <t>4896258055</t>
         </is>
       </c>
-      <c r="H328" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:21:43</t>
-        </is>
+      <c r="H328" s="1" t="n">
+        <v>44389.89008101852</v>
       </c>
       <c r="I328" t="n">
         <v>4</v>
@@ -24760,10 +24122,8 @@
           <t>4896262432</t>
         </is>
       </c>
-      <c r="H329" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:21:26</t>
-        </is>
+      <c r="H329" s="1" t="n">
+        <v>44389.88988425926</v>
       </c>
       <c r="I329" t="n">
         <v>6</v>
@@ -24835,10 +24195,8 @@
           <t>4896244384</t>
         </is>
       </c>
-      <c r="H330" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:20:04</t>
-        </is>
+      <c r="H330" s="1" t="n">
+        <v>44389.88893518518</v>
       </c>
       <c r="I330" t="n">
         <v>28</v>
@@ -24906,10 +24264,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H331" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:19:52</t>
-        </is>
+      <c r="H331" s="1" t="n">
+        <v>44389.8887962963</v>
       </c>
       <c r="I331" t="n">
         <v>159</v>
@@ -24985,10 +24341,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H332" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:19:37</t>
-        </is>
+      <c r="H332" s="1" t="n">
+        <v>44389.88862268518</v>
       </c>
       <c r="I332" t="n">
         <v>0</v>
@@ -25056,10 +24410,8 @@
           <t>4896239939</t>
         </is>
       </c>
-      <c r="H333" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:19:22</t>
-        </is>
+      <c r="H333" s="1" t="n">
+        <v>44389.88844907407</v>
       </c>
       <c r="I333" t="n">
         <v>7</v>
@@ -25127,10 +24479,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H334" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:18:49</t>
-        </is>
+      <c r="H334" s="1" t="n">
+        <v>44389.88806712963</v>
       </c>
       <c r="I334" t="n">
         <v>626</v>
@@ -25194,10 +24544,8 @@
           <t>4896237594</t>
         </is>
       </c>
-      <c r="H335" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:18:26</t>
-        </is>
+      <c r="H335" s="1" t="n">
+        <v>44389.88780092593</v>
       </c>
       <c r="I335" t="n">
         <v>1</v>
@@ -25261,10 +24609,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H336" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:16:14</t>
-        </is>
+      <c r="H336" s="1" t="n">
+        <v>44389.88627314815</v>
       </c>
       <c r="I336" t="n">
         <v>397</v>
@@ -25340,10 +24686,8 @@
           <t>4896225359</t>
         </is>
       </c>
-      <c r="H337" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:16:02</t>
-        </is>
+      <c r="H337" s="1" t="n">
+        <v>44389.88613425926</v>
       </c>
       <c r="I337" t="n">
         <v>10</v>
@@ -25403,10 +24747,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H338" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:15:57</t>
-        </is>
+      <c r="H338" s="1" t="n">
+        <v>44389.88607638889</v>
       </c>
       <c r="I338" t="n">
         <v>9</v>
@@ -25482,10 +24824,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H339" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:15:23</t>
-        </is>
+      <c r="H339" s="1" t="n">
+        <v>44389.88568287037</v>
       </c>
       <c r="I339" t="n">
         <v>2</v>
@@ -25553,10 +24893,8 @@
           <t>4896215237</t>
         </is>
       </c>
-      <c r="H340" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:14:48</t>
-        </is>
+      <c r="H340" s="1" t="n">
+        <v>44389.88527777778</v>
       </c>
       <c r="I340" t="n">
         <v>7</v>
@@ -25620,10 +24958,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:14:39</t>
-        </is>
+      <c r="H341" s="1" t="n">
+        <v>44389.88517361111</v>
       </c>
       <c r="I341" t="n">
         <v>5</v>
@@ -25687,10 +25023,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:14:35</t>
-        </is>
+      <c r="H342" s="1" t="n">
+        <v>44389.88512731482</v>
       </c>
       <c r="I342" t="n">
         <v>22</v>
@@ -25754,10 +25088,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:14:33</t>
-        </is>
+      <c r="H343" s="1" t="n">
+        <v>44389.88510416666</v>
       </c>
       <c r="I343" t="n">
         <v>0</v>
@@ -25817,10 +25149,8 @@
           <t>4896211655</t>
         </is>
       </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:14:23</t>
-        </is>
+      <c r="H344" s="1" t="n">
+        <v>44389.88498842593</v>
       </c>
       <c r="I344" t="n">
         <v>4</v>
@@ -25888,10 +25218,8 @@
           <t>4896189810</t>
         </is>
       </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:14:10</t>
-        </is>
+      <c r="H345" s="1" t="n">
+        <v>44389.88483796296</v>
       </c>
       <c r="I345" t="n">
         <v>3</v>
@@ -25959,10 +25287,8 @@
           <t>4896203128</t>
         </is>
       </c>
-      <c r="H346" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:14:01</t>
-        </is>
+      <c r="H346" s="1" t="n">
+        <v>44389.88473379629</v>
       </c>
       <c r="I346" t="n">
         <v>7</v>
@@ -26038,10 +25364,8 @@
           <t>4896206420</t>
         </is>
       </c>
-      <c r="H347" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:13:48</t>
-        </is>
+      <c r="H347" s="1" t="n">
+        <v>44389.88458333333</v>
       </c>
       <c r="I347" t="n">
         <v>27</v>
@@ -26109,10 +25433,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H348" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:13:24</t>
-        </is>
+      <c r="H348" s="1" t="n">
+        <v>44389.88430555556</v>
       </c>
       <c r="I348" t="n">
         <v>0</v>
@@ -26180,10 +25502,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H349" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:13:14</t>
-        </is>
+      <c r="H349" s="1" t="n">
+        <v>44389.88418981482</v>
       </c>
       <c r="I349" t="n">
         <v>0</v>
@@ -26255,10 +25575,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H350" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:13:12</t>
-        </is>
+      <c r="H350" s="1" t="n">
+        <v>44389.88416666666</v>
       </c>
       <c r="I350" t="n">
         <v>0</v>
@@ -26334,10 +25652,8 @@
           <t>4896200774</t>
         </is>
       </c>
-      <c r="H351" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:13:07</t>
-        </is>
+      <c r="H351" s="1" t="n">
+        <v>44389.88410879629</v>
       </c>
       <c r="I351" t="n">
         <v>2</v>
@@ -26409,10 +25725,8 @@
           <t>4896194440</t>
         </is>
       </c>
-      <c r="H352" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:13:01</t>
-        </is>
+      <c r="H352" s="1" t="n">
+        <v>44389.88403935185</v>
       </c>
       <c r="I352" t="n">
         <v>3</v>
@@ -26484,10 +25798,8 @@
           <t>4896189810</t>
         </is>
       </c>
-      <c r="H353" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:12:44</t>
-        </is>
+      <c r="H353" s="1" t="n">
+        <v>44389.88384259259</v>
       </c>
       <c r="I353" t="n">
         <v>11</v>
@@ -26559,10 +25871,8 @@
           <t>4896197581</t>
         </is>
       </c>
-      <c r="H354" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:12:36</t>
-        </is>
+      <c r="H354" s="1" t="n">
+        <v>44389.88375</v>
       </c>
       <c r="I354" t="n">
         <v>31</v>
@@ -26634,10 +25944,8 @@
           <t>4896186716</t>
         </is>
       </c>
-      <c r="H355" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:11:34</t>
-        </is>
+      <c r="H355" s="1" t="n">
+        <v>44389.88303240741</v>
       </c>
       <c r="I355" t="n">
         <v>1</v>
@@ -26705,10 +26013,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H356" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:11:32</t>
-        </is>
+      <c r="H356" s="1" t="n">
+        <v>44389.88300925926</v>
       </c>
       <c r="I356" t="n">
         <v>16</v>
@@ -26787,10 +26093,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H357" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:11:24</t>
-        </is>
+      <c r="H357" s="1" t="n">
+        <v>44389.88291666667</v>
       </c>
       <c r="I357" t="n">
         <v>3</v>
@@ -26854,10 +26158,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H358" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:11:16</t>
-        </is>
+      <c r="H358" s="1" t="n">
+        <v>44389.88282407408</v>
       </c>
       <c r="I358" t="n">
         <v>238</v>
@@ -26925,10 +26227,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H359" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:11:10</t>
-        </is>
+      <c r="H359" s="1" t="n">
+        <v>44389.88275462963</v>
       </c>
       <c r="I359" t="n">
         <v>0</v>
@@ -27004,10 +26304,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H360" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:11:09</t>
-        </is>
+      <c r="H360" s="1" t="n">
+        <v>44389.88274305555</v>
       </c>
       <c r="I360" t="n">
         <v>899</v>
@@ -27075,10 +26373,8 @@
           <t>4896183080</t>
         </is>
       </c>
-      <c r="H361" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:10:39</t>
-        </is>
+      <c r="H361" s="1" t="n">
+        <v>44389.88239583333</v>
       </c>
       <c r="I361" t="n">
         <v>0</v>
@@ -27142,10 +26438,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H362" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:10:38</t>
-        </is>
+      <c r="H362" s="1" t="n">
+        <v>44389.88238425926</v>
       </c>
       <c r="I362" t="n">
         <v>0</v>
@@ -27209,10 +26503,8 @@
           <t>4896182928</t>
         </is>
       </c>
-      <c r="H363" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:10:34</t>
-        </is>
+      <c r="H363" s="1" t="n">
+        <v>44389.88233796296</v>
       </c>
       <c r="I363" t="n">
         <v>1</v>
@@ -27288,10 +26580,8 @@
           <t>4896182334</t>
         </is>
       </c>
-      <c r="H364" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:10:18</t>
-        </is>
+      <c r="H364" s="1" t="n">
+        <v>44389.88215277778</v>
       </c>
       <c r="I364" t="n">
         <v>6</v>
@@ -27360,10 +26650,8 @@
           <t>4896172794</t>
         </is>
       </c>
-      <c r="H365" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:10:04</t>
-        </is>
+      <c r="H365" s="1" t="n">
+        <v>44389.88199074074</v>
       </c>
       <c r="I365" t="n">
         <v>0</v>
@@ -27431,10 +26719,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H366" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:09:42</t>
-        </is>
+      <c r="H366" s="1" t="n">
+        <v>44389.88173611111</v>
       </c>
       <c r="I366" t="n">
         <v>0</v>
@@ -27502,10 +26788,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H367" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:09:33</t>
-        </is>
+      <c r="H367" s="1" t="n">
+        <v>44389.88163194444</v>
       </c>
       <c r="I367" t="n">
         <v>4</v>
@@ -27577,10 +26861,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H368" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:09:31</t>
-        </is>
+      <c r="H368" s="1" t="n">
+        <v>44389.8816087963</v>
       </c>
       <c r="I368" t="n">
         <v>11</v>
@@ -27652,10 +26934,8 @@
           <t>4896180084</t>
         </is>
       </c>
-      <c r="H369" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:09:17</t>
-        </is>
+      <c r="H369" s="1" t="n">
+        <v>44389.88144675926</v>
       </c>
       <c r="I369" t="n">
         <v>7</v>
@@ -27731,10 +27011,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H370" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:09:05</t>
-        </is>
+      <c r="H370" s="1" t="n">
+        <v>44389.88130787037</v>
       </c>
       <c r="I370" t="n">
         <v>2</v>
@@ -27806,10 +27084,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H371" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:09:01</t>
-        </is>
+      <c r="H371" s="1" t="n">
+        <v>44389.88126157408</v>
       </c>
       <c r="I371" t="n">
         <v>16</v>
@@ -27877,10 +27153,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H372" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:08:38</t>
-        </is>
+      <c r="H372" s="1" t="n">
+        <v>44389.88099537037</v>
       </c>
       <c r="I372" t="n">
         <v>2</v>
@@ -27948,10 +27222,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H373" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:08:21</t>
-        </is>
+      <c r="H373" s="1" t="n">
+        <v>44389.88079861111</v>
       </c>
       <c r="I373" t="n">
         <v>224</v>
@@ -28027,10 +27299,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H374" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:07:58</t>
-        </is>
+      <c r="H374" s="1" t="n">
+        <v>44389.88053240741</v>
       </c>
       <c r="I374" t="n">
         <v>3</v>
@@ -28098,10 +27368,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H375" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:07:33</t>
-        </is>
+      <c r="H375" s="1" t="n">
+        <v>44389.88024305556</v>
       </c>
       <c r="I375" t="n">
         <v>109</v>
@@ -28172,10 +27440,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H376" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:07:25</t>
-        </is>
+      <c r="H376" s="1" t="n">
+        <v>44389.88015046297</v>
       </c>
       <c r="I376" t="n">
         <v>12</v>
@@ -28247,10 +27513,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H377" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:07:15</t>
-        </is>
+      <c r="H377" s="1" t="n">
+        <v>44389.88003472222</v>
       </c>
       <c r="I377" t="n">
         <v>1</v>
@@ -28318,10 +27582,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H378" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:07:00</t>
-        </is>
+      <c r="H378" s="1" t="n">
+        <v>44389.87986111111</v>
       </c>
       <c r="I378" t="n">
         <v>1</v>
@@ -28392,10 +27654,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H379" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:06:45</t>
-        </is>
+      <c r="H379" s="1" t="n">
+        <v>44389.8796875</v>
       </c>
       <c r="I379" t="n">
         <v>83</v>
@@ -28471,10 +27731,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H380" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:06:34</t>
-        </is>
+      <c r="H380" s="1" t="n">
+        <v>44389.87956018518</v>
       </c>
       <c r="I380" t="n">
         <v>19</v>
@@ -28550,10 +27808,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H381" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:06:18</t>
-        </is>
+      <c r="H381" s="1" t="n">
+        <v>44389.879375</v>
       </c>
       <c r="I381" t="n">
         <v>2</v>
@@ -28617,10 +27873,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H382" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:05:59</t>
-        </is>
+      <c r="H382" s="1" t="n">
+        <v>44389.8791550926</v>
       </c>
       <c r="I382" t="n">
         <v>162</v>
@@ -28692,10 +27946,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H383" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:05:51</t>
-        </is>
+      <c r="H383" s="1" t="n">
+        <v>44389.8790625</v>
       </c>
       <c r="I383" t="n">
         <v>1</v>
@@ -28767,10 +28019,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H384" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:05:42</t>
-        </is>
+      <c r="H384" s="1" t="n">
+        <v>44389.87895833333</v>
       </c>
       <c r="I384" t="n">
         <v>1</v>
@@ -28846,10 +28096,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H385" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:05:25</t>
-        </is>
+      <c r="H385" s="1" t="n">
+        <v>44389.87876157407</v>
       </c>
       <c r="I385" t="n">
         <v>1</v>
@@ -28925,10 +28173,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H386" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:05:08</t>
-        </is>
+      <c r="H386" s="1" t="n">
+        <v>44389.87856481481</v>
       </c>
       <c r="I386" t="n">
         <v>6</v>
@@ -29004,10 +28250,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H387" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:04:49</t>
-        </is>
+      <c r="H387" s="1" t="n">
+        <v>44389.87834490741</v>
       </c>
       <c r="I387" t="n">
         <v>39</v>
@@ -29071,10 +28315,8 @@
           <t>0</t>
         </is>
       </c>
-      <c r="H388" t="inlineStr">
-        <is>
-          <t>2021-07-12 21:04:47</t>
-        </is>
+      <c r="H388" s="1" t="n">
+        <v>44389.87832175926</v>
       </c>
       <c r="I388" t="n">
         <v>1</v>
